--- a/code/table.xlsx
+++ b/code/table.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-24.04\RegConf\code\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11010"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="table" sheetId="1" r:id="rId1"/>
-    <sheet name="gas" sheetId="2" r:id="rId2"/>
-    <sheet name="liquid" sheetId="3" r:id="rId3"/>
+    <sheet r:id="rId1" sheetId="1" name="table"/>
+    <sheet r:id="rId2" sheetId="2" name="gas"/>
+    <sheet r:id="rId3" sheetId="3" name="liquid"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -250,7 +245,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -261,7 +257,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFffffff"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -287,27 +283,27 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor rgb="FFffc000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
+        <fgColor rgb="FF00b050"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor rgb="FFff0000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
+        <fgColor rgb="FFffffff"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF0D0D0D"/>
+        <fgColor rgb="FF0d0d0d"/>
       </patternFill>
     </fill>
   </fills>
@@ -330,7 +326,7 @@
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color rgb="FFc6c6c6"/>
       </bottom>
       <diagonal/>
     </border>
@@ -364,16 +360,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color rgb="FFc6c6c6"/>
       </left>
       <right style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color rgb="FFc6c6c6"/>
       </right>
       <top style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color rgb="FFc6c6c6"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color rgb="FFc6c6c6"/>
       </bottom>
       <diagonal/>
     </border>
@@ -394,125 +390,116 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="34">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="3" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -523,10 +510,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -564,71 +551,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -656,7 +643,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -679,11 +666,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -692,13 +679,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -708,7 +695,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -717,7 +704,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -726,7 +713,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -734,10 +721,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -808,25 +795,24 @@
   </sheetPr>
   <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:H46"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.85546875" style="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" style="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="22.28515625" style="32" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" style="19" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="45.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19" style="18" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="46.85546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.85546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.85546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="17" width="30.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="19" width="18.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="33" width="22.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="33" width="22.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="19" width="17.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="20" width="17.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="20" width="45.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="20" width="19.005" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="20" width="46.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="20" width="23.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="18" width="23.862142857142857" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="33">
       <c r="A1" s="27" t="s">
         <v>67</v>
       </c>
@@ -848,7 +834,7 @@
       <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>35</v>
       </c>
       <c r="I1" s="4" t="s">
@@ -861,7 +847,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="20.25">
       <c r="A2" s="5" t="s">
         <v>70</v>
       </c>
@@ -883,7 +869,7 @@
       <c r="G2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="7" t="s">
         <v>40</v>
       </c>
       <c r="I2" s="7" t="s">
@@ -896,7 +882,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="20.25">
       <c r="A3" s="8" t="s">
         <v>12</v>
       </c>
@@ -913,17 +899,17 @@
         <v>13</v>
       </c>
       <c r="F3" s="11">
-        <v>8.9272251494099271E-4</v>
+        <v>0.0008927225149409927</v>
       </c>
       <c r="G3" s="11">
         <v>4.18</v>
       </c>
-      <c r="H3" s="33"/>
+      <c r="H3" s="28"/>
       <c r="I3" s="29"/>
       <c r="J3" s="28"/>
       <c r="K3" s="30"/>
     </row>
-    <row r="4" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="20.25">
       <c r="A4" s="8" t="s">
         <v>14</v>
       </c>
@@ -940,17 +926,17 @@
         <v>13</v>
       </c>
       <c r="F4" s="11">
-        <v>3.5E-4</v>
+        <v>0.00035</v>
       </c>
       <c r="G4" s="11">
         <v>1.93</v>
       </c>
-      <c r="H4" s="33"/>
+      <c r="H4" s="28"/>
       <c r="I4" s="29"/>
       <c r="J4" s="28"/>
       <c r="K4" s="30"/>
     </row>
-    <row r="5" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="20.25">
       <c r="A5" s="8" t="s">
         <v>15</v>
       </c>
@@ -967,17 +953,17 @@
         <v>13</v>
       </c>
       <c r="F5" s="11">
-        <v>3.5000000000000003E-2</v>
+        <v>0.035</v>
       </c>
       <c r="G5" s="11">
         <v>2.1</v>
       </c>
-      <c r="H5" s="33"/>
+      <c r="H5" s="28"/>
       <c r="I5" s="29"/>
       <c r="J5" s="28"/>
       <c r="K5" s="30"/>
     </row>
-    <row r="6" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="20.25">
       <c r="A6" s="8" t="s">
         <v>16</v>
       </c>
@@ -994,17 +980,17 @@
         <v>17</v>
       </c>
       <c r="F6" s="11">
-        <v>8.9272251494099271E-4</v>
+        <v>0.0008927225149409927</v>
       </c>
       <c r="G6" s="11">
         <v>4.18</v>
       </c>
-      <c r="H6" s="33"/>
+      <c r="H6" s="28"/>
       <c r="I6" s="29"/>
       <c r="J6" s="28"/>
       <c r="K6" s="30"/>
     </row>
-    <row r="7" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="20.25">
       <c r="A7" s="8" t="s">
         <v>18</v>
       </c>
@@ -1021,17 +1007,17 @@
         <v>13</v>
       </c>
       <c r="F7" s="11">
-        <v>4.6147889793659241E-4</v>
+        <v>0.0004614788979365924</v>
       </c>
       <c r="G7" s="11">
         <v>2.56</v>
       </c>
-      <c r="H7" s="33"/>
+      <c r="H7" s="28"/>
       <c r="I7" s="29"/>
       <c r="J7" s="28"/>
       <c r="K7" s="30"/>
     </row>
-    <row r="8" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="20.25">
       <c r="A8" s="8" t="s">
         <v>19</v>
       </c>
@@ -1048,17 +1034,17 @@
         <v>13</v>
       </c>
       <c r="F8" s="11">
-        <v>7.0000000000000001E-3</v>
+        <v>0.007</v>
       </c>
       <c r="G8" s="11">
         <v>1.7</v>
       </c>
-      <c r="H8" s="33"/>
+      <c r="H8" s="28"/>
       <c r="I8" s="29"/>
       <c r="J8" s="28"/>
       <c r="K8" s="30"/>
     </row>
-    <row r="9" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="20.25">
       <c r="A9" s="8" t="s">
         <v>20</v>
       </c>
@@ -1075,17 +1061,17 @@
         <v>13</v>
       </c>
       <c r="F9" s="11">
-        <v>1.4999999999999999E-4</v>
+        <v>0.00015</v>
       </c>
       <c r="G9" s="11">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="H9" s="33"/>
+        <v>2.2</v>
+      </c>
+      <c r="H9" s="28"/>
       <c r="I9" s="29"/>
       <c r="J9" s="28"/>
       <c r="K9" s="30"/>
     </row>
-    <row r="10" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="20.25">
       <c r="A10" s="8" t="s">
         <v>21</v>
       </c>
@@ -1102,17 +1088,17 @@
         <v>22</v>
       </c>
       <c r="F10" s="11">
-        <v>2E-3</v>
+        <v>0.002</v>
       </c>
       <c r="G10" s="11">
         <v>3.1</v>
       </c>
-      <c r="H10" s="33"/>
+      <c r="H10" s="28"/>
       <c r="I10" s="29"/>
       <c r="J10" s="28"/>
       <c r="K10" s="30"/>
     </row>
-    <row r="11" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="20.25">
       <c r="A11" s="8" t="s">
         <v>23</v>
       </c>
@@ -1129,17 +1115,17 @@
         <v>13</v>
       </c>
       <c r="F11" s="11">
-        <v>4.6147889793659241E-4</v>
+        <v>0.0004614788979365924</v>
       </c>
       <c r="G11" s="11">
         <v>2.56</v>
       </c>
-      <c r="H11" s="33"/>
+      <c r="H11" s="28"/>
       <c r="I11" s="29"/>
       <c r="J11" s="28"/>
       <c r="K11" s="30"/>
     </row>
-    <row r="12" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="20.25">
       <c r="A12" s="8" t="s">
         <v>24</v>
       </c>
@@ -1154,17 +1140,17 @@
         <v>22</v>
       </c>
       <c r="F12" s="11">
-        <v>3.5000000000000003E-2</v>
+        <v>0.035</v>
       </c>
       <c r="G12" s="11">
         <v>1.7</v>
       </c>
-      <c r="H12" s="33"/>
+      <c r="H12" s="28"/>
       <c r="I12" s="29"/>
       <c r="J12" s="28"/>
       <c r="K12" s="30"/>
     </row>
-    <row r="13" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="20.25">
       <c r="A13" s="8" t="s">
         <v>25</v>
       </c>
@@ -1181,17 +1167,17 @@
         <v>13</v>
       </c>
       <c r="F13" s="11">
-        <v>3.5E-4</v>
+        <v>0.00035</v>
       </c>
       <c r="G13" s="11">
         <v>1.2</v>
       </c>
-      <c r="H13" s="33"/>
+      <c r="H13" s="28"/>
       <c r="I13" s="29"/>
       <c r="J13" s="28"/>
       <c r="K13" s="30"/>
     </row>
-    <row r="14" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="20.25">
       <c r="A14" s="8" t="s">
         <v>26</v>
       </c>
@@ -1208,15 +1194,15 @@
         <v>22</v>
       </c>
       <c r="F14" s="11">
-        <v>6.4999999999999997E-3</v>
+        <v>0.0065</v>
       </c>
       <c r="G14" s="15"/>
-      <c r="H14" s="33"/>
+      <c r="H14" s="28"/>
       <c r="I14" s="29"/>
       <c r="J14" s="28"/>
       <c r="K14" s="30"/>
     </row>
-    <row r="15" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="20.25">
       <c r="A15" s="8" t="s">
         <v>27</v>
       </c>
@@ -1233,17 +1219,17 @@
         <v>13</v>
       </c>
       <c r="F15" s="11">
-        <v>3.5E-4</v>
+        <v>0.00035</v>
       </c>
       <c r="G15" s="11">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="H15" s="33"/>
+        <v>4.1</v>
+      </c>
+      <c r="H15" s="28"/>
       <c r="I15" s="29"/>
       <c r="J15" s="28"/>
       <c r="K15" s="30"/>
     </row>
-    <row r="16" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="20.25">
       <c r="A16" s="8" t="s">
         <v>28</v>
       </c>
@@ -1260,17 +1246,17 @@
         <v>13</v>
       </c>
       <c r="F16" s="11">
-        <v>3.5E-4</v>
+        <v>0.00035</v>
       </c>
       <c r="G16" s="11">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="H16" s="33"/>
+        <v>2.2</v>
+      </c>
+      <c r="H16" s="28"/>
       <c r="I16" s="29"/>
       <c r="J16" s="28"/>
       <c r="K16" s="30"/>
     </row>
-    <row r="17" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="20.25">
       <c r="A17" s="8" t="s">
         <v>29</v>
       </c>
@@ -1285,17 +1271,17 @@
         <v>13</v>
       </c>
       <c r="F17" s="11">
-        <v>3.5E-4</v>
+        <v>0.00035</v>
       </c>
       <c r="G17" s="11">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="H17" s="33"/>
+        <v>2.2</v>
+      </c>
+      <c r="H17" s="28"/>
       <c r="I17" s="29"/>
       <c r="J17" s="28"/>
       <c r="K17" s="30"/>
     </row>
-    <row r="18" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="20.25">
       <c r="A18" s="8" t="s">
         <v>30</v>
       </c>
@@ -1312,17 +1298,17 @@
         <v>13</v>
       </c>
       <c r="F18" s="11">
-        <v>1.2031366216294906E-4</v>
+        <v>0.00012031366216294906</v>
       </c>
       <c r="G18" s="11">
         <v>4.7</v>
       </c>
-      <c r="H18" s="33"/>
+      <c r="H18" s="28"/>
       <c r="I18" s="29"/>
       <c r="J18" s="28"/>
       <c r="K18" s="30"/>
     </row>
-    <row r="19" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="20.25">
       <c r="A19" s="8" t="s">
         <v>31</v>
       </c>
@@ -1339,17 +1325,17 @@
         <v>13</v>
       </c>
       <c r="F19" s="11">
-        <v>1.9999999999999999E-6</v>
+        <v>0.000002</v>
       </c>
       <c r="G19" s="11">
-        <v>0.65500000000000003</v>
-      </c>
-      <c r="H19" s="33"/>
+        <v>0.655</v>
+      </c>
+      <c r="H19" s="28"/>
       <c r="I19" s="29"/>
       <c r="J19" s="28"/>
       <c r="K19" s="30"/>
     </row>
-    <row r="20" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="20.25">
       <c r="A20" s="8" t="s">
         <v>32</v>
       </c>
@@ -1366,17 +1352,17 @@
         <v>13</v>
       </c>
       <c r="F20" s="11">
-        <v>1.9999999999999999E-6</v>
+        <v>0.000002</v>
       </c>
       <c r="G20" s="11">
         <v>0.7</v>
       </c>
-      <c r="H20" s="33"/>
+      <c r="H20" s="28"/>
       <c r="I20" s="29"/>
       <c r="J20" s="28"/>
       <c r="K20" s="30"/>
     </row>
-    <row r="21" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="20.25">
       <c r="A21" s="8" t="s">
         <v>33</v>
       </c>
@@ -1393,17 +1379,17 @@
         <v>13</v>
       </c>
       <c r="F21" s="11">
-        <v>1.9999999999999999E-6</v>
+        <v>0.000002</v>
       </c>
       <c r="G21" s="11">
         <v>0.7</v>
       </c>
-      <c r="H21" s="33"/>
+      <c r="H21" s="28"/>
       <c r="I21" s="29"/>
       <c r="J21" s="28"/>
       <c r="K21" s="30"/>
     </row>
-    <row r="22" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="20.25">
       <c r="A22" s="8" t="s">
         <v>34</v>
       </c>
@@ -1420,15 +1406,15 @@
         <v>22</v>
       </c>
       <c r="F22" s="11">
-        <v>2E-3</v>
+        <v>0.002</v>
       </c>
       <c r="G22" s="15"/>
-      <c r="H22" s="33"/>
+      <c r="H22" s="28"/>
       <c r="I22" s="29"/>
       <c r="J22" s="28"/>
       <c r="K22" s="30"/>
     </row>
-    <row r="23" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="20.25">
       <c r="A23" s="8" t="s">
         <v>44</v>
       </c>
@@ -1441,16 +1427,16 @@
         <v>13</v>
       </c>
       <c r="F23" s="11">
-        <v>1.0814160000000001E-5</v>
+        <v>0.000010814160000000001</v>
       </c>
       <c r="G23" s="11">
         <v>4.18</v>
       </c>
-      <c r="H23" s="34">
+      <c r="H23" s="23">
         <v>18</v>
       </c>
       <c r="I23" s="31">
-        <v>3.3170000000000002</v>
+        <v>3.317</v>
       </c>
       <c r="J23" s="11">
         <v>1.26</v>
@@ -1459,7 +1445,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="20.25">
       <c r="A24" s="8" t="s">
         <v>45</v>
       </c>
@@ -1472,12 +1458,12 @@
         <v>13</v>
       </c>
       <c r="F24" s="11">
-        <v>1.833383304E-5</v>
+        <v>0.00001833383304</v>
       </c>
       <c r="G24" s="11">
         <v>1.05</v>
       </c>
-      <c r="H24" s="34">
+      <c r="H24" s="23">
         <v>28</v>
       </c>
       <c r="I24" s="11">
@@ -1490,7 +1476,7 @@
         <v>1.0061357779356415</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="20.25">
       <c r="A25" s="8" t="s">
         <v>46</v>
       </c>
@@ -1503,12 +1489,12 @@
         <v>13</v>
       </c>
       <c r="F25" s="11">
-        <v>1.0844080000000002E-5</v>
+        <v>0.000010844080000000002</v>
       </c>
       <c r="G25" s="11">
-        <v>2.2440000000000002</v>
-      </c>
-      <c r="H25" s="34">
+        <v>2.244</v>
+      </c>
+      <c r="H25" s="23">
         <v>17</v>
       </c>
       <c r="I25" s="11">
@@ -1521,7 +1507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="20.25">
       <c r="A26" s="8" t="s">
         <v>47</v>
       </c>
@@ -1534,16 +1520,16 @@
         <v>13</v>
       </c>
       <c r="F26" s="11">
-        <v>1.8970329039999999E-5</v>
+        <v>0.00001897032904</v>
       </c>
       <c r="G26" s="11">
         <v>1.006</v>
       </c>
-      <c r="H26" s="34">
+      <c r="H26" s="23">
         <v>29</v>
       </c>
       <c r="I26" s="11">
-        <v>0.71799999999999997</v>
+        <v>0.718</v>
       </c>
       <c r="J26" s="11">
         <v>1.4</v>
@@ -1552,7 +1538,7 @@
         <v>1.0061357779356415</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="20.25">
       <c r="A27" s="8" t="s">
         <v>48</v>
       </c>
@@ -1565,25 +1551,25 @@
         <v>22</v>
       </c>
       <c r="F27" s="11">
-        <v>2.0932119999999997E-5</v>
+        <v>0.000020932119999999997</v>
       </c>
       <c r="G27" s="11">
-        <v>0.91300000000000003</v>
-      </c>
-      <c r="H27" s="34">
+        <v>0.913</v>
+      </c>
+      <c r="H27" s="23">
         <v>32</v>
       </c>
       <c r="I27" s="11">
-        <v>0.65200000000000002</v>
+        <v>0.652</v>
       </c>
       <c r="J27" s="11">
         <v>1.4</v>
       </c>
       <c r="K27" s="23">
-        <v>0.95671370510307441</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0.9567137051030744</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="20.25">
       <c r="A28" s="24" t="s">
         <v>49</v>
       </c>
@@ -1596,16 +1582,16 @@
         <v>13</v>
       </c>
       <c r="F28" s="11">
-        <v>1.4641309999999999E-5</v>
+        <v>0.000014641309999999999</v>
       </c>
       <c r="G28" s="11">
         <v>0.52</v>
       </c>
-      <c r="H28" s="35">
+      <c r="H28" s="32">
         <v>71</v>
       </c>
       <c r="I28" s="11">
-        <v>0.38800000000000001</v>
+        <v>0.388</v>
       </c>
       <c r="J28" s="11">
         <v>1.34</v>
@@ -1614,7 +1600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="20.25">
       <c r="A29" s="24" t="s">
         <v>50</v>
       </c>
@@ -1627,12 +1613,12 @@
         <v>13</v>
       </c>
       <c r="F29" s="11">
-        <v>2.30927E-5</v>
+        <v>0.0000230927</v>
       </c>
       <c r="G29" s="11">
         <v>0.52</v>
       </c>
-      <c r="H29" s="35">
+      <c r="H29" s="32">
         <v>40</v>
       </c>
       <c r="I29" s="11">
@@ -1645,7 +1631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="20.25">
       <c r="A30" s="8" t="s">
         <v>51</v>
       </c>
@@ -1658,12 +1644,12 @@
         <v>13</v>
       </c>
       <c r="F30" s="11">
-        <v>9.1125699999999994E-6</v>
+        <v>0.00000911257</v>
       </c>
       <c r="G30" s="11">
         <v>14.27</v>
       </c>
-      <c r="H30" s="34">
+      <c r="H30" s="23">
         <v>2</v>
       </c>
       <c r="I30" s="11">
@@ -1676,7 +1662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="20.25">
       <c r="A31" s="8" t="s">
         <v>52</v>
       </c>
@@ -1689,12 +1675,12 @@
         <v>13</v>
       </c>
       <c r="F31" s="11">
-        <v>2.0244319999999997E-5</v>
+        <v>0.000020244319999999997</v>
       </c>
       <c r="G31" s="26">
-        <v>5.2960000000000003</v>
-      </c>
-      <c r="H31" s="34">
+        <v>5.296</v>
+      </c>
+      <c r="H31" s="23">
         <v>4</v>
       </c>
       <c r="I31" s="26">
@@ -1707,7 +1693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="20.25">
       <c r="A32" s="8" t="s">
         <v>53</v>
       </c>
@@ -1720,12 +1706,12 @@
         <v>13</v>
       </c>
       <c r="F32" s="11">
-        <v>1.8246493599999996E-5</v>
+        <v>0.000018246493599999996</v>
       </c>
       <c r="G32" s="26">
-        <v>1.0429999999999999</v>
-      </c>
-      <c r="H32" s="34">
+        <v>1.043</v>
+      </c>
+      <c r="H32" s="23">
         <v>28</v>
       </c>
       <c r="I32" s="26">
@@ -1735,10 +1721,10 @@
         <v>1.4</v>
       </c>
       <c r="K32" s="23">
-        <v>0.96566724151604433</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0.9656672415160443</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="20.25">
       <c r="A33" s="8" t="s">
         <v>54</v>
       </c>
@@ -1751,12 +1737,12 @@
         <v>13</v>
       </c>
       <c r="F33" s="11">
-        <v>1.5763190000000001E-5</v>
+        <v>0.00001576319</v>
       </c>
       <c r="G33" s="26">
-        <v>0.83699999999999997</v>
-      </c>
-      <c r="H33" s="34">
+        <v>0.837</v>
+      </c>
+      <c r="H33" s="23">
         <v>44</v>
       </c>
       <c r="I33" s="26">
@@ -1766,10 +1752,10 @@
         <v>1.3</v>
       </c>
       <c r="K33" s="23">
-        <v>0.77554703630091115</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0.7755470363009112</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="20.25">
       <c r="A34" s="8" t="s">
         <v>55</v>
       </c>
@@ -1782,12 +1768,12 @@
         <v>13</v>
       </c>
       <c r="F34" s="11">
-        <v>1.17519E-5</v>
+        <v>0.0000117519</v>
       </c>
       <c r="G34" s="26">
-        <v>2.4830000000000001</v>
-      </c>
-      <c r="H34" s="34">
+        <v>2.483</v>
+      </c>
+      <c r="H34" s="23">
         <v>16</v>
       </c>
       <c r="I34" s="26">
@@ -1797,10 +1783,10 @@
         <v>1.3</v>
       </c>
       <c r="K34" s="23">
-        <v>0.96211149020387587</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0.9621114902038759</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="20.25">
       <c r="A35" s="8" t="s">
         <v>56</v>
       </c>
@@ -1813,12 +1799,12 @@
         <v>13</v>
       </c>
       <c r="F35" s="11">
-        <v>9.7492751999999998E-6</v>
+        <v>0.0000097492752</v>
       </c>
       <c r="G35" s="26">
         <v>1.65</v>
       </c>
-      <c r="H35" s="34">
+      <c r="H35" s="23">
         <v>30</v>
       </c>
       <c r="I35" s="26">
@@ -1828,10 +1814,10 @@
         <v>1.2017479970866713</v>
       </c>
       <c r="K35" s="23">
-        <v>0.99750623441396513</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0.9975062344139651</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="20.25">
       <c r="A36" s="8" t="s">
         <v>57</v>
       </c>
@@ -1844,12 +1830,12 @@
         <v>13</v>
       </c>
       <c r="F36" s="11">
-        <v>8.4001299999999998E-6</v>
+        <v>0.00000840013</v>
       </c>
       <c r="G36" s="26">
         <v>1.554</v>
       </c>
-      <c r="H36" s="34">
+      <c r="H36" s="23">
         <v>44.1</v>
       </c>
       <c r="I36" s="26">
@@ -1862,7 +1848,7 @@
         <v>1.010875</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="20.25">
       <c r="A37" s="8" t="s">
         <v>58</v>
       </c>
@@ -1875,25 +1861,25 @@
         <v>13</v>
       </c>
       <c r="F37" s="11">
-        <v>7.96E-6</v>
+        <v>0.00000796</v>
       </c>
       <c r="G37" s="26">
-        <v>1.5960000000000001</v>
-      </c>
-      <c r="H37" s="34">
+        <v>1.596</v>
+      </c>
+      <c r="H37" s="23">
         <v>58.1</v>
       </c>
       <c r="I37" s="26">
-        <v>1.4570000000000001</v>
+        <v>1.457</v>
       </c>
       <c r="J37" s="11">
-        <v>1.0954015099519561</v>
+        <v>1.095401509951956</v>
       </c>
       <c r="K37" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="20.25">
       <c r="A38" s="8" t="s">
         <v>59</v>
       </c>
@@ -1906,25 +1892,25 @@
         <v>13</v>
       </c>
       <c r="F38" s="11">
-        <v>6.7999999999999993E-6</v>
+        <v>0.000006799999999999999</v>
       </c>
       <c r="G38" s="26">
         <v>1.6</v>
       </c>
-      <c r="H38" s="34">
-        <v>72.099999999999994</v>
+      <c r="H38" s="23">
+        <v>72.1</v>
       </c>
       <c r="I38" s="26">
-        <v>1.4239999999999999</v>
+        <v>1.424</v>
       </c>
       <c r="J38" s="11">
         <v>1.1235955056179776</v>
       </c>
       <c r="K38" s="23">
-        <v>0.97153999999999996</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0.97154</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="20.25">
       <c r="A39" s="8" t="s">
         <v>60</v>
       </c>
@@ -1937,12 +1923,12 @@
         <v>13</v>
       </c>
       <c r="F39" s="11">
-        <v>6.0499999999999997E-6</v>
+        <v>0.00000605</v>
       </c>
       <c r="G39" s="26">
         <v>1.6</v>
       </c>
-      <c r="H39" s="34">
+      <c r="H39" s="23">
         <v>86.1</v>
       </c>
       <c r="I39" s="26">
@@ -1955,7 +1941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="20.25">
       <c r="A40" s="8" t="s">
         <v>61</v>
       </c>
@@ -1968,12 +1954,12 @@
         <v>13</v>
       </c>
       <c r="F40" s="11">
-        <v>6.0499999999999997E-6</v>
+        <v>0.00000605</v>
       </c>
       <c r="G40" s="26">
         <v>1.6</v>
       </c>
-      <c r="H40" s="34">
+      <c r="H40" s="23">
         <v>100.2</v>
       </c>
       <c r="I40" s="26">
@@ -1986,7 +1972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="20.25">
       <c r="A41" s="8" t="s">
         <v>62</v>
       </c>
@@ -1999,12 +1985,12 @@
         <v>13</v>
       </c>
       <c r="F41" s="11">
-        <v>5.5999999999999997E-6</v>
+        <v>0.0000056</v>
       </c>
       <c r="G41" s="26">
         <v>1.6</v>
       </c>
-      <c r="H41" s="34">
+      <c r="H41" s="23">
         <v>114.2</v>
       </c>
       <c r="I41" s="26">
@@ -2017,7 +2003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="20.25">
       <c r="A42" s="8" t="s">
         <v>63</v>
       </c>
@@ -2030,12 +2016,12 @@
         <v>22</v>
       </c>
       <c r="F42" s="11">
-        <v>1.3287397200000001E-5</v>
+        <v>0.000013287397200000001</v>
       </c>
       <c r="G42" s="26">
         <v>1.22</v>
       </c>
-      <c r="H42" s="34">
+      <c r="H42" s="23">
         <v>86.5</v>
       </c>
       <c r="I42" s="26">
@@ -2048,7 +2034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="20.25">
       <c r="A43" s="8" t="s">
         <v>64</v>
       </c>
@@ -2061,12 +2047,12 @@
         <v>13</v>
       </c>
       <c r="F43" s="11">
-        <v>1.3267922594708523E-5</v>
+        <v>0.000013267922594708523</v>
       </c>
       <c r="G43" s="26">
         <v>1.65</v>
       </c>
-      <c r="H43" s="34">
+      <c r="H43" s="23">
         <v>17</v>
       </c>
       <c r="I43" s="26">
@@ -2079,7 +2065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="20.25">
       <c r="A44" s="8" t="s">
         <v>65</v>
       </c>
@@ -2092,12 +2078,12 @@
         <v>13</v>
       </c>
       <c r="F44" s="11">
-        <v>1.3267922594708523E-5</v>
+        <v>0.000013267922594708523</v>
       </c>
       <c r="G44" s="26">
         <v>1.65</v>
       </c>
-      <c r="H44" s="34">
+      <c r="H44" s="23">
         <v>19</v>
       </c>
       <c r="I44" s="26">
@@ -2110,7 +2096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="20.25">
       <c r="A45" s="8" t="s">
         <v>66</v>
       </c>
@@ -2123,12 +2109,12 @@
         <v>13</v>
       </c>
       <c r="F45" s="11">
-        <v>1.0946600000000001E-5</v>
+        <v>0.000010946600000000001</v>
       </c>
       <c r="G45" s="26">
         <v>1.466</v>
       </c>
-      <c r="H45" s="34">
+      <c r="H45" s="23">
         <v>28</v>
       </c>
       <c r="I45" s="26">
@@ -2141,7 +2127,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="21">
       <c r="A46" s="8" t="s">
         <v>14</v>
       </c>
@@ -2154,12 +2140,12 @@
         <v>13</v>
       </c>
       <c r="F46" s="11">
-        <v>8.4001299999999998E-6</v>
+        <v>0.00000840013</v>
       </c>
       <c r="G46" s="26">
-        <v>1.4319999999999999</v>
-      </c>
-      <c r="H46" s="34">
+        <v>1.432</v>
+      </c>
+      <c r="H46" s="23">
         <v>42</v>
       </c>
       <c r="I46" s="26">
@@ -2174,7 +2160,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2189,17 +2174,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.28515625" style="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.7109375" style="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="43.7109375" style="20" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="17" width="30.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="18" width="19.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="20" width="24.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="19" width="14.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="20" width="29.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="18" width="22.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="20" width="48.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="20" width="43.71928571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2225,7 +2210,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
@@ -2251,7 +2236,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="8" t="s">
         <v>44</v>
       </c>
@@ -2265,7 +2250,7 @@
         <v>13</v>
       </c>
       <c r="E3" s="11">
-        <v>1.0814160000000001E-5</v>
+        <v>0.000010814160000000001</v>
       </c>
       <c r="F3" s="23">
         <v>0.8</v>
@@ -2274,10 +2259,10 @@
         <v>4.18</v>
       </c>
       <c r="H3" s="11">
-        <v>3.3170000000000002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>3.317</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="8" t="s">
         <v>45</v>
       </c>
@@ -2291,7 +2276,7 @@
         <v>13</v>
       </c>
       <c r="E4" s="11">
-        <v>1.833383304E-5</v>
+        <v>0.00001833383304</v>
       </c>
       <c r="F4" s="23">
         <v>1.0061357779356415</v>
@@ -2303,7 +2288,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="8" t="s">
         <v>46</v>
       </c>
@@ -2317,19 +2302,19 @@
         <v>13</v>
       </c>
       <c r="E5" s="11">
-        <v>1.0844080000000002E-5</v>
+        <v>0.000010844080000000002</v>
       </c>
       <c r="F5" s="13">
         <v>1</v>
       </c>
       <c r="G5" s="11">
-        <v>2.2440000000000002</v>
+        <v>2.244</v>
       </c>
       <c r="H5" s="11">
         <v>1.7</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="8" t="s">
         <v>47</v>
       </c>
@@ -2343,7 +2328,7 @@
         <v>13</v>
       </c>
       <c r="E6" s="11">
-        <v>1.8970329039999999E-5</v>
+        <v>0.00001897032904</v>
       </c>
       <c r="F6" s="23">
         <v>1.0061357779356415</v>
@@ -2352,10 +2337,10 @@
         <v>1.006</v>
       </c>
       <c r="H6" s="11">
-        <v>0.71799999999999997</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0.718</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="8" t="s">
         <v>48</v>
       </c>
@@ -2369,19 +2354,19 @@
         <v>22</v>
       </c>
       <c r="E7" s="11">
-        <v>2.0932119999999997E-5</v>
+        <v>0.000020932119999999997</v>
       </c>
       <c r="F7" s="23">
-        <v>0.95671370510307441</v>
+        <v>0.9567137051030744</v>
       </c>
       <c r="G7" s="11">
-        <v>0.91300000000000003</v>
+        <v>0.913</v>
       </c>
       <c r="H7" s="11">
-        <v>0.65200000000000002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0.652</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="24" t="s">
         <v>49</v>
       </c>
@@ -2395,7 +2380,7 @@
         <v>13</v>
       </c>
       <c r="E8" s="11">
-        <v>1.4641309999999999E-5</v>
+        <v>0.000014641309999999999</v>
       </c>
       <c r="F8" s="13">
         <v>1</v>
@@ -2404,10 +2389,10 @@
         <v>0.52</v>
       </c>
       <c r="H8" s="11">
-        <v>0.38800000000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0.388</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="24" t="s">
         <v>50</v>
       </c>
@@ -2421,7 +2406,7 @@
         <v>13</v>
       </c>
       <c r="E9" s="11">
-        <v>2.30927E-5</v>
+        <v>0.0000230927</v>
       </c>
       <c r="F9" s="13">
         <v>1</v>
@@ -2433,7 +2418,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="8" t="s">
         <v>51</v>
       </c>
@@ -2447,7 +2432,7 @@
         <v>13</v>
       </c>
       <c r="E10" s="11">
-        <v>9.1125699999999994E-6</v>
+        <v>0.00000911257</v>
       </c>
       <c r="F10" s="13">
         <v>1</v>
@@ -2459,7 +2444,7 @@
         <v>10.19</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="8" t="s">
         <v>52</v>
       </c>
@@ -2473,19 +2458,19 @@
         <v>13</v>
       </c>
       <c r="E11" s="11">
-        <v>2.0244319999999997E-5</v>
+        <v>0.000020244319999999997</v>
       </c>
       <c r="F11" s="13">
         <v>1</v>
       </c>
       <c r="G11" s="26">
-        <v>5.2960000000000003</v>
+        <v>5.296</v>
       </c>
       <c r="H11" s="26">
         <v>3.19</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="8" t="s">
         <v>53</v>
       </c>
@@ -2499,19 +2484,19 @@
         <v>13</v>
       </c>
       <c r="E12" s="11">
-        <v>1.8246493599999996E-5</v>
+        <v>0.000018246493599999996</v>
       </c>
       <c r="F12" s="23">
-        <v>0.96566724151604433</v>
+        <v>0.9656672415160443</v>
       </c>
       <c r="G12" s="26">
-        <v>1.0429999999999999</v>
+        <v>1.043</v>
       </c>
       <c r="H12" s="26">
         <v>0.745</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="8" t="s">
         <v>54</v>
       </c>
@@ -2525,19 +2510,19 @@
         <v>13</v>
       </c>
       <c r="E13" s="11">
-        <v>1.5763190000000001E-5</v>
+        <v>0.00001576319</v>
       </c>
       <c r="F13" s="23">
-        <v>0.77554703630091115</v>
+        <v>0.7755470363009112</v>
       </c>
       <c r="G13" s="26">
-        <v>0.83699999999999997</v>
+        <v>0.837</v>
       </c>
       <c r="H13" s="26">
         <v>0.8</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
       <c r="A14" s="8" t="s">
         <v>55</v>
       </c>
@@ -2551,19 +2536,19 @@
         <v>13</v>
       </c>
       <c r="E14" s="11">
-        <v>1.17519E-5</v>
+        <v>0.0000117519</v>
       </c>
       <c r="F14" s="23">
-        <v>0.96211149020387587</v>
+        <v>0.9621114902038759</v>
       </c>
       <c r="G14" s="26">
-        <v>2.4830000000000001</v>
+        <v>2.483</v>
       </c>
       <c r="H14" s="26">
         <v>1.91</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
       <c r="A15" s="8" t="s">
         <v>56</v>
       </c>
@@ -2577,10 +2562,10 @@
         <v>13</v>
       </c>
       <c r="E15" s="11">
-        <v>9.7492751999999998E-6</v>
+        <v>0.0000097492752</v>
       </c>
       <c r="F15" s="23">
-        <v>0.99750623441396513</v>
+        <v>0.9975062344139651</v>
       </c>
       <c r="G15" s="26">
         <v>1.65</v>
@@ -2589,7 +2574,7 @@
         <v>1.373</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
       <c r="A16" s="8" t="s">
         <v>57</v>
       </c>
@@ -2603,7 +2588,7 @@
         <v>13</v>
       </c>
       <c r="E16" s="11">
-        <v>8.4001299999999998E-6</v>
+        <v>0.00000840013</v>
       </c>
       <c r="F16" s="23">
         <v>1.010875</v>
@@ -2615,7 +2600,7 @@
         <v>1.365</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
       <c r="A17" s="8" t="s">
         <v>58</v>
       </c>
@@ -2623,30 +2608,30 @@
         <v>58.1</v>
       </c>
       <c r="C17" s="11">
-        <v>1.0954015099519561</v>
+        <v>1.095401509951956</v>
       </c>
       <c r="D17" s="16" t="s">
         <v>13</v>
       </c>
       <c r="E17" s="11">
-        <v>7.96E-6</v>
+        <v>0.00000796</v>
       </c>
       <c r="F17" s="13">
         <v>1</v>
       </c>
       <c r="G17" s="26">
-        <v>1.5960000000000001</v>
+        <v>1.596</v>
       </c>
       <c r="H17" s="26">
-        <v>1.4570000000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1.457</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
       <c r="A18" s="8" t="s">
         <v>59</v>
       </c>
       <c r="B18" s="23">
-        <v>72.099999999999994</v>
+        <v>72.1</v>
       </c>
       <c r="C18" s="11">
         <v>1.1235955056179776</v>
@@ -2655,19 +2640,19 @@
         <v>13</v>
       </c>
       <c r="E18" s="11">
-        <v>6.7999999999999993E-6</v>
+        <v>0.000006799999999999999</v>
       </c>
       <c r="F18" s="23">
-        <v>0.97153999999999996</v>
+        <v>0.97154</v>
       </c>
       <c r="G18" s="26">
         <v>1.6</v>
       </c>
       <c r="H18" s="26">
-        <v>1.4239999999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1.424</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
       <c r="A19" s="8" t="s">
         <v>60</v>
       </c>
@@ -2681,7 +2666,7 @@
         <v>13</v>
       </c>
       <c r="E19" s="11">
-        <v>6.0499999999999997E-6</v>
+        <v>0.00000605</v>
       </c>
       <c r="F19" s="13">
         <v>1</v>
@@ -2693,7 +2678,7 @@
         <v>1.51</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
       <c r="A20" s="8" t="s">
         <v>61</v>
       </c>
@@ -2707,7 +2692,7 @@
         <v>13</v>
       </c>
       <c r="E20" s="11">
-        <v>6.0499999999999997E-6</v>
+        <v>0.00000605</v>
       </c>
       <c r="F20" s="13">
         <v>1</v>
@@ -2719,7 +2704,7 @@
         <v>1.52</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
       <c r="A21" s="8" t="s">
         <v>62</v>
       </c>
@@ -2733,7 +2718,7 @@
         <v>13</v>
       </c>
       <c r="E21" s="11">
-        <v>5.5999999999999997E-6</v>
+        <v>0.0000056</v>
       </c>
       <c r="F21" s="13">
         <v>1</v>
@@ -2745,7 +2730,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
       <c r="A22" s="8" t="s">
         <v>63</v>
       </c>
@@ -2759,7 +2744,7 @@
         <v>22</v>
       </c>
       <c r="E22" s="11">
-        <v>1.3287397200000001E-5</v>
+        <v>0.000013287397200000001</v>
       </c>
       <c r="F22" s="13">
         <v>1</v>
@@ -2771,7 +2756,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
       <c r="A23" s="8" t="s">
         <v>64</v>
       </c>
@@ -2785,7 +2770,7 @@
         <v>13</v>
       </c>
       <c r="E23" s="11">
-        <v>1.3267922594708523E-5</v>
+        <v>0.000013267922594708523</v>
       </c>
       <c r="F23" s="13">
         <v>1</v>
@@ -2797,7 +2782,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
       <c r="A24" s="8" t="s">
         <v>65</v>
       </c>
@@ -2811,7 +2796,7 @@
         <v>13</v>
       </c>
       <c r="E24" s="11">
-        <v>1.3267922594708523E-5</v>
+        <v>0.000013267922594708523</v>
       </c>
       <c r="F24" s="13">
         <v>1</v>
@@ -2823,7 +2808,7 @@
         <v>1.27</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
       <c r="A25" s="8" t="s">
         <v>66</v>
       </c>
@@ -2837,7 +2822,7 @@
         <v>13</v>
       </c>
       <c r="E25" s="11">
-        <v>1.0946600000000001E-5</v>
+        <v>0.000010946600000000001</v>
       </c>
       <c r="F25" s="23">
         <v>0.75</v>
@@ -2849,7 +2834,7 @@
         <v>1.163</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
       <c r="A26" s="8" t="s">
         <v>14</v>
       </c>
@@ -2863,13 +2848,13 @@
         <v>13</v>
       </c>
       <c r="E26" s="11">
-        <v>8.4001299999999998E-6</v>
+        <v>0.00000840013</v>
       </c>
       <c r="F26" s="13">
         <v>1</v>
       </c>
       <c r="G26" s="26">
-        <v>1.4319999999999999</v>
+        <v>1.432</v>
       </c>
       <c r="H26" s="26">
         <v>1.222</v>
@@ -2891,15 +2876,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.140625" style="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.5703125" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" style="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="44.7109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="17" width="32.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="18" width="22.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="18" width="20.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="19" width="18.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="20" width="24.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="21" width="44.71928571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="36.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2919,7 +2904,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
@@ -2939,7 +2924,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="8" t="s">
         <v>12</v>
       </c>
@@ -2953,13 +2938,13 @@
         <v>13</v>
       </c>
       <c r="E3" s="11">
-        <v>8.9272251494099271E-4</v>
+        <v>0.0008927225149409927</v>
       </c>
       <c r="F3" s="11">
         <v>4.18</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="8" t="s">
         <v>14</v>
       </c>
@@ -2973,13 +2958,13 @@
         <v>13</v>
       </c>
       <c r="E4" s="11">
-        <v>3.5E-4</v>
+        <v>0.00035</v>
       </c>
       <c r="F4" s="11">
         <v>1.93</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="8" t="s">
         <v>15</v>
       </c>
@@ -2993,13 +2978,13 @@
         <v>13</v>
       </c>
       <c r="E5" s="11">
-        <v>3.5000000000000003E-2</v>
+        <v>0.035</v>
       </c>
       <c r="F5" s="11">
         <v>2.1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="8" t="s">
         <v>16</v>
       </c>
@@ -3013,13 +2998,13 @@
         <v>17</v>
       </c>
       <c r="E6" s="11">
-        <v>8.9272251494099271E-4</v>
+        <v>0.0008927225149409927</v>
       </c>
       <c r="F6" s="11">
         <v>4.18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="8" t="s">
         <v>18</v>
       </c>
@@ -3033,13 +3018,13 @@
         <v>13</v>
       </c>
       <c r="E7" s="11">
-        <v>4.6147889793659241E-4</v>
+        <v>0.0004614788979365924</v>
       </c>
       <c r="F7" s="11">
         <v>2.56</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="8" t="s">
         <v>19</v>
       </c>
@@ -3053,13 +3038,13 @@
         <v>13</v>
       </c>
       <c r="E8" s="11">
-        <v>7.0000000000000001E-3</v>
+        <v>0.007</v>
       </c>
       <c r="F8" s="11">
         <v>1.7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="8" t="s">
         <v>20</v>
       </c>
@@ -3073,13 +3058,13 @@
         <v>13</v>
       </c>
       <c r="E9" s="11">
-        <v>1.4999999999999999E-4</v>
+        <v>0.00015</v>
       </c>
       <c r="F9" s="11">
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="8" t="s">
         <v>21</v>
       </c>
@@ -3093,13 +3078,13 @@
         <v>22</v>
       </c>
       <c r="E10" s="11">
-        <v>2E-3</v>
+        <v>0.002</v>
       </c>
       <c r="F10" s="11">
         <v>3.1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="8" t="s">
         <v>23</v>
       </c>
@@ -3113,13 +3098,13 @@
         <v>13</v>
       </c>
       <c r="E11" s="11">
-        <v>4.6147889793659241E-4</v>
+        <v>0.0004614788979365924</v>
       </c>
       <c r="F11" s="11">
         <v>2.56</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="8" t="s">
         <v>24</v>
       </c>
@@ -3131,13 +3116,13 @@
         <v>22</v>
       </c>
       <c r="E12" s="11">
-        <v>3.5000000000000003E-2</v>
+        <v>0.035</v>
       </c>
       <c r="F12" s="11">
         <v>1.7</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="8" t="s">
         <v>25</v>
       </c>
@@ -3151,13 +3136,13 @@
         <v>13</v>
       </c>
       <c r="E13" s="11">
-        <v>3.5E-4</v>
+        <v>0.00035</v>
       </c>
       <c r="F13" s="11">
         <v>1.2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
       <c r="A14" s="8" t="s">
         <v>26</v>
       </c>
@@ -3171,11 +3156,11 @@
         <v>22</v>
       </c>
       <c r="E14" s="11">
-        <v>6.4999999999999997E-3</v>
+        <v>0.0065</v>
       </c>
       <c r="F14" s="15"/>
     </row>
-    <row r="15" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
       <c r="A15" s="8" t="s">
         <v>27</v>
       </c>
@@ -3189,13 +3174,13 @@
         <v>13</v>
       </c>
       <c r="E15" s="11">
-        <v>3.5E-4</v>
+        <v>0.00035</v>
       </c>
       <c r="F15" s="11">
-        <v>4.0999999999999996</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>4.1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
       <c r="A16" s="8" t="s">
         <v>28</v>
       </c>
@@ -3209,13 +3194,13 @@
         <v>13</v>
       </c>
       <c r="E16" s="11">
-        <v>3.5E-4</v>
+        <v>0.00035</v>
       </c>
       <c r="F16" s="11">
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
       <c r="A17" s="8" t="s">
         <v>29</v>
       </c>
@@ -3227,13 +3212,13 @@
         <v>13</v>
       </c>
       <c r="E17" s="11">
-        <v>3.5E-4</v>
+        <v>0.00035</v>
       </c>
       <c r="F17" s="11">
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
       <c r="A18" s="8" t="s">
         <v>30</v>
       </c>
@@ -3247,13 +3232,13 @@
         <v>13</v>
       </c>
       <c r="E18" s="11">
-        <v>1.2031366216294906E-4</v>
+        <v>0.00012031366216294906</v>
       </c>
       <c r="F18" s="11">
         <v>4.7</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
       <c r="A19" s="8" t="s">
         <v>31</v>
       </c>
@@ -3267,13 +3252,13 @@
         <v>13</v>
       </c>
       <c r="E19" s="11">
-        <v>1.9999999999999999E-6</v>
+        <v>0.000002</v>
       </c>
       <c r="F19" s="11">
-        <v>0.65500000000000003</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0.655</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
       <c r="A20" s="8" t="s">
         <v>32</v>
       </c>
@@ -3287,13 +3272,13 @@
         <v>13</v>
       </c>
       <c r="E20" s="11">
-        <v>1.9999999999999999E-6</v>
+        <v>0.000002</v>
       </c>
       <c r="F20" s="11">
         <v>0.7</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
       <c r="A21" s="8" t="s">
         <v>33</v>
       </c>
@@ -3307,13 +3292,13 @@
         <v>13</v>
       </c>
       <c r="E21" s="11">
-        <v>1.9999999999999999E-6</v>
+        <v>0.000002</v>
       </c>
       <c r="F21" s="11">
         <v>0.7</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
       <c r="A22" s="8" t="s">
         <v>34</v>
       </c>
@@ -3327,7 +3312,7 @@
         <v>22</v>
       </c>
       <c r="E22" s="11">
-        <v>2E-3</v>
+        <v>0.002</v>
       </c>
       <c r="F22" s="15"/>
     </row>

--- a/code/table.xlsx
+++ b/code/table.xlsx
@@ -899,7 +899,7 @@
         <v>13</v>
       </c>
       <c r="F3" s="11">
-        <v>0.0008927225149409927</v>
+        <v>0.000892722514941</v>
       </c>
       <c r="G3" s="11">
         <v>4.18</v>
@@ -1489,7 +1489,7 @@
         <v>13</v>
       </c>
       <c r="F25" s="11">
-        <v>0.000010844080000000002</v>
+        <v>0.00001084408</v>
       </c>
       <c r="G25" s="11">
         <v>2.244</v>

--- a/code/table.xlsx
+++ b/code/table.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-24.04\RegConf\code\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13920" windowHeight="8790"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="table"/>
-    <sheet r:id="rId2" sheetId="2" name="gas"/>
-    <sheet r:id="rId3" sheetId="3" name="liquid"/>
+    <sheet name="table" sheetId="1" r:id="rId1"/>
+    <sheet name="gas" sheetId="2" r:id="rId2"/>
+    <sheet name="liquid" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="79">
   <si>
     <t>Среда</t>
   </si>
@@ -240,14 +245,28 @@
   </si>
   <si>
     <t>Газ</t>
+  </si>
+  <si>
+    <t>1,7839 </t>
+  </si>
+  <si>
+    <t>2,019 </t>
+  </si>
+  <si>
+    <t>3,221 </t>
+  </si>
+  <si>
+    <t>1285 </t>
+  </si>
+  <si>
+    <t> 1,342 </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -257,7 +276,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFffffff"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -273,8 +300,16 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -283,31 +318,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFffc000"/>
+        <fgColor rgb="FFFFC000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00b050"/>
+        <fgColor rgb="FF00B050"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFff0000"/>
+        <fgColor rgb="FFFF0000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFffffff"/>
+        <fgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF0d0d0d"/>
+        <fgColor rgb="FF0D0D0D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -326,7 +366,7 @@
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </bottom>
       <diagonal/>
     </border>
@@ -360,16 +400,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </left>
       <right style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </right>
       <top style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </bottom>
       <diagonal/>
     </border>
@@ -386,120 +426,179 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+  <cellXfs count="44">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="4" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="3" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="4" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="3" fontId="4" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+  <cellStyles count="2">
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Плохой" xfId="1" builtinId="27"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -510,10 +609,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -551,71 +650,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -643,7 +742,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -666,11 +765,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -679,13 +778,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -695,7 +794,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -704,7 +803,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -713,7 +812,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -721,10 +820,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -795,24 +894,25 @@
   </sheetPr>
   <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F55" sqref="F55"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="17" width="30.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="19" width="18.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="33" width="22.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="33" width="22.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="19" width="17.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="20" width="17.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="20" width="45.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="20" width="19.005" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="20" width="46.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="20" width="23.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="18" width="23.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="30.85546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="22.28515625" style="33" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="45.7109375" style="20" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19" style="20" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="46.85546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.85546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.85546875" style="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="33">
+    <row r="1" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
         <v>67</v>
       </c>
@@ -847,7 +947,7 @@
         <v>38</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="20.25">
+    <row r="2" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>70</v>
       </c>
@@ -882,7 +982,7 @@
         <v>42</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="20.25">
+    <row r="3" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>12</v>
       </c>
@@ -899,7 +999,7 @@
         <v>13</v>
       </c>
       <c r="F3" s="11">
-        <v>0.000892722514941</v>
+        <v>8.9272251494099998E-4</v>
       </c>
       <c r="G3" s="11">
         <v>4.18</v>
@@ -909,7 +1009,7 @@
       <c r="J3" s="28"/>
       <c r="K3" s="30"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="20.25">
+    <row r="4" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>14</v>
       </c>
@@ -926,7 +1026,7 @@
         <v>13</v>
       </c>
       <c r="F4" s="11">
-        <v>0.00035</v>
+        <v>3.5E-4</v>
       </c>
       <c r="G4" s="11">
         <v>1.93</v>
@@ -936,7 +1036,7 @@
       <c r="J4" s="28"/>
       <c r="K4" s="30"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="20.25">
+    <row r="5" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>15</v>
       </c>
@@ -953,7 +1053,7 @@
         <v>13</v>
       </c>
       <c r="F5" s="11">
-        <v>0.035</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="G5" s="11">
         <v>2.1</v>
@@ -963,7 +1063,7 @@
       <c r="J5" s="28"/>
       <c r="K5" s="30"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="20.25">
+    <row r="6" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>16</v>
       </c>
@@ -980,7 +1080,7 @@
         <v>17</v>
       </c>
       <c r="F6" s="11">
-        <v>0.0008927225149409927</v>
+        <v>8.9272251494099271E-4</v>
       </c>
       <c r="G6" s="11">
         <v>4.18</v>
@@ -990,7 +1090,7 @@
       <c r="J6" s="28"/>
       <c r="K6" s="30"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="20.25">
+    <row r="7" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>18</v>
       </c>
@@ -1007,7 +1107,7 @@
         <v>13</v>
       </c>
       <c r="F7" s="11">
-        <v>0.0004614788979365924</v>
+        <v>4.6147889793659241E-4</v>
       </c>
       <c r="G7" s="11">
         <v>2.56</v>
@@ -1017,7 +1117,7 @@
       <c r="J7" s="28"/>
       <c r="K7" s="30"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="20.25">
+    <row r="8" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>19</v>
       </c>
@@ -1034,7 +1134,7 @@
         <v>13</v>
       </c>
       <c r="F8" s="11">
-        <v>0.007</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="G8" s="11">
         <v>1.7</v>
@@ -1044,7 +1144,7 @@
       <c r="J8" s="28"/>
       <c r="K8" s="30"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="20.25">
+    <row r="9" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>20</v>
       </c>
@@ -1061,17 +1161,17 @@
         <v>13</v>
       </c>
       <c r="F9" s="11">
-        <v>0.00015</v>
+        <v>1.4999999999999999E-4</v>
       </c>
       <c r="G9" s="11">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="H9" s="28"/>
       <c r="I9" s="29"/>
       <c r="J9" s="28"/>
       <c r="K9" s="30"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="20.25">
+    <row r="10" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>21</v>
       </c>
@@ -1088,7 +1188,7 @@
         <v>22</v>
       </c>
       <c r="F10" s="11">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="G10" s="11">
         <v>3.1</v>
@@ -1098,7 +1198,7 @@
       <c r="J10" s="28"/>
       <c r="K10" s="30"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="20.25">
+    <row r="11" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>23</v>
       </c>
@@ -1115,7 +1215,7 @@
         <v>13</v>
       </c>
       <c r="F11" s="11">
-        <v>0.0004614788979365924</v>
+        <v>4.6147889793659241E-4</v>
       </c>
       <c r="G11" s="11">
         <v>2.56</v>
@@ -1125,7 +1225,7 @@
       <c r="J11" s="28"/>
       <c r="K11" s="30"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="20.25">
+    <row r="12" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>24</v>
       </c>
@@ -1140,7 +1240,7 @@
         <v>22</v>
       </c>
       <c r="F12" s="11">
-        <v>0.035</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="G12" s="11">
         <v>1.7</v>
@@ -1150,7 +1250,7 @@
       <c r="J12" s="28"/>
       <c r="K12" s="30"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="20.25">
+    <row r="13" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>25</v>
       </c>
@@ -1167,7 +1267,7 @@
         <v>13</v>
       </c>
       <c r="F13" s="11">
-        <v>0.00035</v>
+        <v>3.5E-4</v>
       </c>
       <c r="G13" s="11">
         <v>1.2</v>
@@ -1177,7 +1277,7 @@
       <c r="J13" s="28"/>
       <c r="K13" s="30"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="20.25">
+    <row r="14" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>26</v>
       </c>
@@ -1194,7 +1294,7 @@
         <v>22</v>
       </c>
       <c r="F14" s="11">
-        <v>0.0065</v>
+        <v>6.4999999999999997E-3</v>
       </c>
       <c r="G14" s="15"/>
       <c r="H14" s="28"/>
@@ -1202,7 +1302,7 @@
       <c r="J14" s="28"/>
       <c r="K14" s="30"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="20.25">
+    <row r="15" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>27</v>
       </c>
@@ -1219,17 +1319,17 @@
         <v>13</v>
       </c>
       <c r="F15" s="11">
-        <v>0.00035</v>
+        <v>3.5E-4</v>
       </c>
       <c r="G15" s="11">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="H15" s="28"/>
       <c r="I15" s="29"/>
       <c r="J15" s="28"/>
       <c r="K15" s="30"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="20.25">
+    <row r="16" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>28</v>
       </c>
@@ -1246,17 +1346,17 @@
         <v>13</v>
       </c>
       <c r="F16" s="11">
-        <v>0.00035</v>
+        <v>3.5E-4</v>
       </c>
       <c r="G16" s="11">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="H16" s="28"/>
       <c r="I16" s="29"/>
       <c r="J16" s="28"/>
       <c r="K16" s="30"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="20.25">
+    <row r="17" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>29</v>
       </c>
@@ -1271,17 +1371,17 @@
         <v>13</v>
       </c>
       <c r="F17" s="11">
-        <v>0.00035</v>
+        <v>3.5E-4</v>
       </c>
       <c r="G17" s="11">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="H17" s="28"/>
       <c r="I17" s="29"/>
       <c r="J17" s="28"/>
       <c r="K17" s="30"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="20.25">
+    <row r="18" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>30</v>
       </c>
@@ -1298,7 +1398,7 @@
         <v>13</v>
       </c>
       <c r="F18" s="11">
-        <v>0.00012031366216294906</v>
+        <v>1.2031366216294906E-4</v>
       </c>
       <c r="G18" s="11">
         <v>4.7</v>
@@ -1308,7 +1408,7 @@
       <c r="J18" s="28"/>
       <c r="K18" s="30"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="20.25">
+    <row r="19" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>31</v>
       </c>
@@ -1325,17 +1425,17 @@
         <v>13</v>
       </c>
       <c r="F19" s="11">
-        <v>0.000002</v>
+        <v>1.9999999999999999E-6</v>
       </c>
       <c r="G19" s="11">
-        <v>0.655</v>
+        <v>0.65500000000000003</v>
       </c>
       <c r="H19" s="28"/>
       <c r="I19" s="29"/>
       <c r="J19" s="28"/>
       <c r="K19" s="30"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="20.25">
+    <row r="20" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>32</v>
       </c>
@@ -1352,7 +1452,7 @@
         <v>13</v>
       </c>
       <c r="F20" s="11">
-        <v>0.000002</v>
+        <v>1.9999999999999999E-6</v>
       </c>
       <c r="G20" s="11">
         <v>0.7</v>
@@ -1362,7 +1462,7 @@
       <c r="J20" s="28"/>
       <c r="K20" s="30"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="20.25">
+    <row r="21" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>33</v>
       </c>
@@ -1372,14 +1472,14 @@
       <c r="C21" s="9">
         <v>149</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21" s="39">
         <v>1124</v>
       </c>
       <c r="E21" s="16" t="s">
         <v>13</v>
       </c>
       <c r="F21" s="11">
-        <v>0.000002</v>
+        <v>1.9999999999999999E-6</v>
       </c>
       <c r="G21" s="11">
         <v>0.7</v>
@@ -1389,24 +1489,24 @@
       <c r="J21" s="28"/>
       <c r="K21" s="30"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="20.25">
+    <row r="22" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>34</v>
       </c>
       <c r="B22" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="C22" s="13">
+      <c r="C22" s="37">
         <v>90</v>
       </c>
-      <c r="D22" s="13">
+      <c r="D22" s="40">
         <v>1225</v>
       </c>
-      <c r="E22" s="14" t="s">
+      <c r="E22" s="38" t="s">
         <v>22</v>
       </c>
       <c r="F22" s="11">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="G22" s="15"/>
       <c r="H22" s="28"/>
@@ -1414,20 +1514,22 @@
       <c r="J22" s="28"/>
       <c r="K22" s="30"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="20.25">
+    <row r="23" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>44</v>
       </c>
       <c r="B23" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="16" t="s">
+      <c r="C23" s="34"/>
+      <c r="D23" s="42">
+        <v>0.59799999999999998</v>
+      </c>
+      <c r="E23" s="35" t="s">
         <v>13</v>
       </c>
       <c r="F23" s="11">
-        <v>0.000010814160000000001</v>
+        <v>1.0814160000000001E-5</v>
       </c>
       <c r="G23" s="11">
         <v>4.18</v>
@@ -1436,7 +1538,7 @@
         <v>18</v>
       </c>
       <c r="I23" s="31">
-        <v>3.317</v>
+        <v>3.3170000000000002</v>
       </c>
       <c r="J23" s="11">
         <v>1.26</v>
@@ -1445,20 +1547,22 @@
         <v>0.8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="20.25">
+    <row r="24" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>45</v>
       </c>
       <c r="B24" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="16" t="s">
+      <c r="C24" s="34"/>
+      <c r="D24" s="42">
+        <v>1.2504599999999999</v>
+      </c>
+      <c r="E24" s="35" t="s">
         <v>13</v>
       </c>
       <c r="F24" s="11">
-        <v>0.00001833383304</v>
+        <v>1.833383304E-5</v>
       </c>
       <c r="G24" s="11">
         <v>1.05</v>
@@ -1476,23 +1580,25 @@
         <v>1.0061357779356415</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="20.25">
+    <row r="25" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>46</v>
       </c>
       <c r="B25" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="16" t="s">
+      <c r="C25" s="34"/>
+      <c r="D25" s="42">
+        <v>0.77139999999999997</v>
+      </c>
+      <c r="E25" s="35" t="s">
         <v>13</v>
       </c>
       <c r="F25" s="11">
-        <v>0.00001084408</v>
+        <v>1.084408E-5</v>
       </c>
       <c r="G25" s="11">
-        <v>2.244</v>
+        <v>2.2440000000000002</v>
       </c>
       <c r="H25" s="23">
         <v>17</v>
@@ -1507,20 +1613,22 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="20.25">
+    <row r="26" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>47</v>
       </c>
       <c r="B26" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="16" t="s">
+      <c r="C26" s="34"/>
+      <c r="D26" s="42">
+        <v>1.2754000000000001</v>
+      </c>
+      <c r="E26" s="35" t="s">
         <v>13</v>
       </c>
       <c r="F26" s="11">
-        <v>0.00001897032904</v>
+        <v>1.8970329039999999E-5</v>
       </c>
       <c r="G26" s="11">
         <v>1.006</v>
@@ -1529,7 +1637,7 @@
         <v>29</v>
       </c>
       <c r="I26" s="11">
-        <v>0.718</v>
+        <v>0.71799999999999997</v>
       </c>
       <c r="J26" s="11">
         <v>1.4</v>
@@ -1538,51 +1646,55 @@
         <v>1.0061357779356415</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="20.25">
+    <row r="27" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>48</v>
       </c>
       <c r="B27" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="16" t="s">
+      <c r="C27" s="34"/>
+      <c r="D27" s="42">
+        <v>1.4279999999999999</v>
+      </c>
+      <c r="E27" s="35" t="s">
         <v>22</v>
       </c>
       <c r="F27" s="11">
-        <v>0.000020932119999999997</v>
+        <v>2.0932119999999997E-5</v>
       </c>
       <c r="G27" s="11">
-        <v>0.913</v>
+        <v>0.91300000000000003</v>
       </c>
       <c r="H27" s="23">
         <v>32</v>
       </c>
       <c r="I27" s="11">
-        <v>0.652</v>
+        <v>0.65200000000000002</v>
       </c>
       <c r="J27" s="11">
         <v>1.4</v>
       </c>
       <c r="K27" s="23">
-        <v>0.9567137051030744</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="20.25">
+        <v>0.95671370510307441</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="24" t="s">
         <v>49</v>
       </c>
       <c r="B28" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="16" t="s">
+      <c r="C28" s="34"/>
+      <c r="D28" s="42">
+        <v>3.214</v>
+      </c>
+      <c r="E28" s="35" t="s">
         <v>13</v>
       </c>
       <c r="F28" s="11">
-        <v>0.000014641309999999999</v>
+        <v>1.4641309999999999E-5</v>
       </c>
       <c r="G28" s="11">
         <v>0.52</v>
@@ -1591,7 +1703,7 @@
         <v>71</v>
       </c>
       <c r="I28" s="11">
-        <v>0.388</v>
+        <v>0.38800000000000001</v>
       </c>
       <c r="J28" s="11">
         <v>1.34</v>
@@ -1600,20 +1712,22 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="20.25">
+    <row r="29" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="24" t="s">
         <v>50</v>
       </c>
       <c r="B29" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="16" t="s">
+      <c r="C29" s="34"/>
+      <c r="D29" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="E29" s="35" t="s">
         <v>13</v>
       </c>
       <c r="F29" s="11">
-        <v>0.0000230927</v>
+        <v>2.30927E-5</v>
       </c>
       <c r="G29" s="11">
         <v>0.52</v>
@@ -1631,20 +1745,22 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="20.25">
+    <row r="30" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>51</v>
       </c>
       <c r="B30" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="C30" s="30"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="16" t="s">
+      <c r="C30" s="34"/>
+      <c r="D30" s="42">
+        <v>0.09</v>
+      </c>
+      <c r="E30" s="35" t="s">
         <v>13</v>
       </c>
       <c r="F30" s="11">
-        <v>0.00000911257</v>
+        <v>9.1125699999999994E-6</v>
       </c>
       <c r="G30" s="11">
         <v>14.27</v>
@@ -1662,23 +1778,25 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="20.25">
+    <row r="31" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>52</v>
       </c>
       <c r="B31" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="C31" s="30"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="16" t="s">
+      <c r="C31" s="34"/>
+      <c r="D31" s="42">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="E31" s="35" t="s">
         <v>13</v>
       </c>
       <c r="F31" s="11">
-        <v>0.000020244319999999997</v>
+        <v>2.0244319999999997E-5</v>
       </c>
       <c r="G31" s="26">
-        <v>5.296</v>
+        <v>5.2960000000000003</v>
       </c>
       <c r="H31" s="23">
         <v>4</v>
@@ -1693,23 +1811,25 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="20.25">
+    <row r="32" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
         <v>53</v>
       </c>
       <c r="B32" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="C32" s="30"/>
-      <c r="D32" s="30"/>
-      <c r="E32" s="16" t="s">
+      <c r="C32" s="34"/>
+      <c r="D32" s="42">
+        <v>1.98</v>
+      </c>
+      <c r="E32" s="35" t="s">
         <v>13</v>
       </c>
       <c r="F32" s="11">
-        <v>0.000018246493599999996</v>
+        <v>1.8246493599999996E-5</v>
       </c>
       <c r="G32" s="26">
-        <v>1.043</v>
+        <v>1.0429999999999999</v>
       </c>
       <c r="H32" s="23">
         <v>28</v>
@@ -1721,26 +1841,28 @@
         <v>1.4</v>
       </c>
       <c r="K32" s="23">
-        <v>0.9656672415160443</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="20.25">
+        <v>0.96566724151604433</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
         <v>54</v>
       </c>
       <c r="B33" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="C33" s="30"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="16" t="s">
+      <c r="C33" s="34"/>
+      <c r="D33" s="42">
+        <v>1.98</v>
+      </c>
+      <c r="E33" s="35" t="s">
         <v>13</v>
       </c>
       <c r="F33" s="11">
-        <v>0.00001576319</v>
+        <v>1.5763190000000001E-5</v>
       </c>
       <c r="G33" s="26">
-        <v>0.837</v>
+        <v>0.83699999999999997</v>
       </c>
       <c r="H33" s="23">
         <v>44</v>
@@ -1752,26 +1874,28 @@
         <v>1.3</v>
       </c>
       <c r="K33" s="23">
-        <v>0.7755470363009112</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="20.25">
+        <v>0.77554703630091115</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
         <v>55</v>
       </c>
       <c r="B34" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="C34" s="30"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="16" t="s">
+      <c r="C34" s="34"/>
+      <c r="D34" s="42">
+        <v>0.71399999999999997</v>
+      </c>
+      <c r="E34" s="35" t="s">
         <v>13</v>
       </c>
       <c r="F34" s="11">
-        <v>0.0000117519</v>
+        <v>1.17519E-5</v>
       </c>
       <c r="G34" s="26">
-        <v>2.483</v>
+        <v>2.4830000000000001</v>
       </c>
       <c r="H34" s="23">
         <v>16</v>
@@ -1783,23 +1907,25 @@
         <v>1.3</v>
       </c>
       <c r="K34" s="23">
-        <v>0.9621114902038759</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="20.25">
+        <v>0.96211149020387587</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
         <v>56</v>
       </c>
       <c r="B35" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="C35" s="30"/>
-      <c r="D35" s="30"/>
-      <c r="E35" s="16" t="s">
+      <c r="C35" s="34"/>
+      <c r="D35" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="E35" s="35" t="s">
         <v>13</v>
       </c>
       <c r="F35" s="11">
-        <v>0.0000097492752</v>
+        <v>9.7492751999999998E-6</v>
       </c>
       <c r="G35" s="26">
         <v>1.65</v>
@@ -1814,23 +1940,25 @@
         <v>1.2017479970866713</v>
       </c>
       <c r="K35" s="23">
-        <v>0.9975062344139651</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="20.25">
+        <v>0.99750623441396513</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
         <v>57</v>
       </c>
       <c r="B36" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="C36" s="30"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="16" t="s">
+      <c r="C36" s="34"/>
+      <c r="D36" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="E36" s="35" t="s">
         <v>13</v>
       </c>
       <c r="F36" s="11">
-        <v>0.00000840013</v>
+        <v>8.4001299999999998E-6</v>
       </c>
       <c r="G36" s="26">
         <v>1.554</v>
@@ -1848,82 +1976,88 @@
         <v>1.010875</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="20.25">
+    <row r="37" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
         <v>58</v>
       </c>
       <c r="B37" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="C37" s="30"/>
-      <c r="D37" s="30"/>
-      <c r="E37" s="16" t="s">
+      <c r="C37" s="34"/>
+      <c r="D37" s="42">
+        <v>2.7029999999999998</v>
+      </c>
+      <c r="E37" s="35" t="s">
         <v>13</v>
       </c>
       <c r="F37" s="11">
-        <v>0.00000796</v>
+        <v>7.96E-6</v>
       </c>
       <c r="G37" s="26">
-        <v>1.596</v>
+        <v>1.5960000000000001</v>
       </c>
       <c r="H37" s="23">
         <v>58.1</v>
       </c>
       <c r="I37" s="26">
-        <v>1.457</v>
+        <v>1.4570000000000001</v>
       </c>
       <c r="J37" s="11">
-        <v>1.095401509951956</v>
+        <v>1.0954015099519561</v>
       </c>
       <c r="K37" s="13">
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="20.25">
+    <row r="38" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
         <v>59</v>
       </c>
       <c r="B38" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="C38" s="30"/>
-      <c r="D38" s="30"/>
-      <c r="E38" s="16" t="s">
+      <c r="C38" s="34"/>
+      <c r="D38" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="E38" s="35" t="s">
         <v>13</v>
       </c>
       <c r="F38" s="11">
-        <v>0.000006799999999999999</v>
+        <v>6.7999999999999993E-6</v>
       </c>
       <c r="G38" s="26">
         <v>1.6</v>
       </c>
       <c r="H38" s="23">
-        <v>72.1</v>
+        <v>72.099999999999994</v>
       </c>
       <c r="I38" s="26">
-        <v>1.424</v>
+        <v>1.4239999999999999</v>
       </c>
       <c r="J38" s="11">
         <v>1.1235955056179776</v>
       </c>
       <c r="K38" s="23">
-        <v>0.97154</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="20.25">
+        <v>0.97153999999999996</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
         <v>60</v>
       </c>
       <c r="B39" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="C39" s="30"/>
-      <c r="D39" s="30"/>
-      <c r="E39" s="16" t="s">
+      <c r="C39" s="34"/>
+      <c r="D39" s="42">
+        <v>659.4</v>
+      </c>
+      <c r="E39" s="35" t="s">
         <v>13</v>
       </c>
       <c r="F39" s="11">
-        <v>0.00000605</v>
+        <v>6.0499999999999997E-6</v>
       </c>
       <c r="G39" s="26">
         <v>1.6</v>
@@ -1941,20 +2075,22 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="20.25">
+    <row r="40" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
         <v>61</v>
       </c>
       <c r="B40" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="C40" s="30"/>
-      <c r="D40" s="30"/>
-      <c r="E40" s="16" t="s">
+      <c r="C40" s="34"/>
+      <c r="D40" s="42">
+        <v>4.4589999999999996</v>
+      </c>
+      <c r="E40" s="35" t="s">
         <v>13</v>
       </c>
       <c r="F40" s="11">
-        <v>0.00000605</v>
+        <v>6.0499999999999997E-6</v>
       </c>
       <c r="G40" s="26">
         <v>1.6</v>
@@ -1972,20 +2108,22 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="20.25">
+    <row r="41" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
         <v>62</v>
       </c>
       <c r="B41" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="C41" s="30"/>
-      <c r="D41" s="30"/>
-      <c r="E41" s="16" t="s">
+      <c r="C41" s="34"/>
+      <c r="D41" s="42">
+        <v>702.52</v>
+      </c>
+      <c r="E41" s="35" t="s">
         <v>13</v>
       </c>
       <c r="F41" s="11">
-        <v>0.0000056</v>
+        <v>5.5999999999999997E-6</v>
       </c>
       <c r="G41" s="26">
         <v>1.6</v>
@@ -2003,20 +2141,22 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="20.25">
+    <row r="42" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
         <v>63</v>
       </c>
       <c r="B42" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="C42" s="30"/>
-      <c r="D42" s="30"/>
-      <c r="E42" s="16" t="s">
+      <c r="C42" s="34"/>
+      <c r="D42" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="E42" s="35" t="s">
         <v>22</v>
       </c>
       <c r="F42" s="11">
-        <v>0.000013287397200000001</v>
+        <v>1.3287397200000001E-5</v>
       </c>
       <c r="G42" s="26">
         <v>1.22</v>
@@ -2034,20 +2174,22 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="20.25">
+    <row r="43" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
         <v>64</v>
       </c>
       <c r="B43" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="C43" s="30"/>
-      <c r="D43" s="30"/>
-      <c r="E43" s="16" t="s">
+      <c r="C43" s="34"/>
+      <c r="D43" s="36">
+        <v>0.71699999999999997</v>
+      </c>
+      <c r="E43" s="35" t="s">
         <v>13</v>
       </c>
       <c r="F43" s="11">
-        <v>0.000013267922594708523</v>
+        <v>1.3267922594708523E-5</v>
       </c>
       <c r="G43" s="26">
         <v>1.65</v>
@@ -2065,20 +2207,22 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="20.25">
+    <row r="44" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
         <v>65</v>
       </c>
       <c r="B44" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="C44" s="30"/>
-      <c r="D44" s="30"/>
-      <c r="E44" s="16" t="s">
+      <c r="C44" s="34"/>
+      <c r="D44" s="41">
+        <v>0.7</v>
+      </c>
+      <c r="E44" s="35" t="s">
         <v>13</v>
       </c>
       <c r="F44" s="11">
-        <v>0.000013267922594708523</v>
+        <v>1.3267922594708523E-5</v>
       </c>
       <c r="G44" s="26">
         <v>1.65</v>
@@ -2096,20 +2240,22 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="20.25">
+    <row r="45" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
         <v>66</v>
       </c>
       <c r="B45" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="C45" s="30"/>
-      <c r="D45" s="30"/>
-      <c r="E45" s="16" t="s">
+      <c r="C45" s="34"/>
+      <c r="D45" s="36">
+        <v>1.1739999999999999</v>
+      </c>
+      <c r="E45" s="35" t="s">
         <v>13</v>
       </c>
       <c r="F45" s="11">
-        <v>0.000010946600000000001</v>
+        <v>1.0946600000000001E-5</v>
       </c>
       <c r="G45" s="26">
         <v>1.466</v>
@@ -2127,23 +2273,25 @@
         <v>0.75</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="21">
+    <row r="46" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B46" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="C46" s="30"/>
-      <c r="D46" s="30"/>
-      <c r="E46" s="16" t="s">
+      <c r="C46" s="34"/>
+      <c r="D46" s="36">
+        <v>1.81</v>
+      </c>
+      <c r="E46" s="35" t="s">
         <v>13</v>
       </c>
       <c r="F46" s="11">
-        <v>0.00000840013</v>
+        <v>8.4001299999999998E-6</v>
       </c>
       <c r="G46" s="26">
-        <v>1.432</v>
+        <v>1.4319999999999999</v>
       </c>
       <c r="H46" s="23">
         <v>42</v>
@@ -2160,6 +2308,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2174,17 +2323,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="17" width="30.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="18" width="19.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="20" width="24.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="19" width="14.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="20" width="29.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="18" width="22.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="20" width="48.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="20" width="43.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="30.28515625" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" style="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.28515625" style="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.7109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" style="20" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="43.7109375" style="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2210,7 +2359,7 @@
         <v>39</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
@@ -2236,7 +2385,7 @@
         <v>43</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>44</v>
       </c>
@@ -2250,7 +2399,7 @@
         <v>13</v>
       </c>
       <c r="E3" s="11">
-        <v>0.000010814160000000001</v>
+        <v>1.0814160000000001E-5</v>
       </c>
       <c r="F3" s="23">
         <v>0.8</v>
@@ -2259,10 +2408,10 @@
         <v>4.18</v>
       </c>
       <c r="H3" s="11">
-        <v>3.317</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+        <v>3.3170000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>45</v>
       </c>
@@ -2276,7 +2425,7 @@
         <v>13</v>
       </c>
       <c r="E4" s="11">
-        <v>0.00001833383304</v>
+        <v>1.833383304E-5</v>
       </c>
       <c r="F4" s="23">
         <v>1.0061357779356415</v>
@@ -2288,7 +2437,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>46</v>
       </c>
@@ -2302,19 +2451,19 @@
         <v>13</v>
       </c>
       <c r="E5" s="11">
-        <v>0.000010844080000000002</v>
+        <v>1.0844080000000002E-5</v>
       </c>
       <c r="F5" s="13">
         <v>1</v>
       </c>
       <c r="G5" s="11">
-        <v>2.244</v>
+        <v>2.2440000000000002</v>
       </c>
       <c r="H5" s="11">
         <v>1.7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>47</v>
       </c>
@@ -2328,7 +2477,7 @@
         <v>13</v>
       </c>
       <c r="E6" s="11">
-        <v>0.00001897032904</v>
+        <v>1.8970329039999999E-5</v>
       </c>
       <c r="F6" s="23">
         <v>1.0061357779356415</v>
@@ -2337,10 +2486,10 @@
         <v>1.006</v>
       </c>
       <c r="H6" s="11">
-        <v>0.718</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+        <v>0.71799999999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>48</v>
       </c>
@@ -2354,19 +2503,19 @@
         <v>22</v>
       </c>
       <c r="E7" s="11">
-        <v>0.000020932119999999997</v>
+        <v>2.0932119999999997E-5</v>
       </c>
       <c r="F7" s="23">
-        <v>0.9567137051030744</v>
+        <v>0.95671370510307441</v>
       </c>
       <c r="G7" s="11">
-        <v>0.913</v>
+        <v>0.91300000000000003</v>
       </c>
       <c r="H7" s="11">
-        <v>0.652</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+        <v>0.65200000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="24" t="s">
         <v>49</v>
       </c>
@@ -2380,7 +2529,7 @@
         <v>13</v>
       </c>
       <c r="E8" s="11">
-        <v>0.000014641309999999999</v>
+        <v>1.4641309999999999E-5</v>
       </c>
       <c r="F8" s="13">
         <v>1</v>
@@ -2389,10 +2538,10 @@
         <v>0.52</v>
       </c>
       <c r="H8" s="11">
-        <v>0.388</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+        <v>0.38800000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
         <v>50</v>
       </c>
@@ -2406,7 +2555,7 @@
         <v>13</v>
       </c>
       <c r="E9" s="11">
-        <v>0.0000230927</v>
+        <v>2.30927E-5</v>
       </c>
       <c r="F9" s="13">
         <v>1</v>
@@ -2418,7 +2567,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>51</v>
       </c>
@@ -2432,7 +2581,7 @@
         <v>13</v>
       </c>
       <c r="E10" s="11">
-        <v>0.00000911257</v>
+        <v>9.1125699999999994E-6</v>
       </c>
       <c r="F10" s="13">
         <v>1</v>
@@ -2444,7 +2593,7 @@
         <v>10.19</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row r="11" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>52</v>
       </c>
@@ -2458,19 +2607,19 @@
         <v>13</v>
       </c>
       <c r="E11" s="11">
-        <v>0.000020244319999999997</v>
+        <v>2.0244319999999997E-5</v>
       </c>
       <c r="F11" s="13">
         <v>1</v>
       </c>
       <c r="G11" s="26">
-        <v>5.296</v>
+        <v>5.2960000000000003</v>
       </c>
       <c r="H11" s="26">
         <v>3.19</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row r="12" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>53</v>
       </c>
@@ -2484,19 +2633,19 @@
         <v>13</v>
       </c>
       <c r="E12" s="11">
-        <v>0.000018246493599999996</v>
+        <v>1.8246493599999996E-5</v>
       </c>
       <c r="F12" s="23">
-        <v>0.9656672415160443</v>
+        <v>0.96566724151604433</v>
       </c>
       <c r="G12" s="26">
-        <v>1.043</v>
+        <v>1.0429999999999999</v>
       </c>
       <c r="H12" s="26">
         <v>0.745</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row r="13" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>54</v>
       </c>
@@ -2510,19 +2659,19 @@
         <v>13</v>
       </c>
       <c r="E13" s="11">
-        <v>0.00001576319</v>
+        <v>1.5763190000000001E-5</v>
       </c>
       <c r="F13" s="23">
-        <v>0.7755470363009112</v>
+        <v>0.77554703630091115</v>
       </c>
       <c r="G13" s="26">
-        <v>0.837</v>
+        <v>0.83699999999999997</v>
       </c>
       <c r="H13" s="26">
         <v>0.8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row r="14" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>55</v>
       </c>
@@ -2536,19 +2685,19 @@
         <v>13</v>
       </c>
       <c r="E14" s="11">
-        <v>0.0000117519</v>
+        <v>1.17519E-5</v>
       </c>
       <c r="F14" s="23">
-        <v>0.9621114902038759</v>
+        <v>0.96211149020387587</v>
       </c>
       <c r="G14" s="26">
-        <v>2.483</v>
+        <v>2.4830000000000001</v>
       </c>
       <c r="H14" s="26">
         <v>1.91</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row r="15" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>56</v>
       </c>
@@ -2562,10 +2711,10 @@
         <v>13</v>
       </c>
       <c r="E15" s="11">
-        <v>0.0000097492752</v>
+        <v>9.7492751999999998E-6</v>
       </c>
       <c r="F15" s="23">
-        <v>0.9975062344139651</v>
+        <v>0.99750623441396513</v>
       </c>
       <c r="G15" s="26">
         <v>1.65</v>
@@ -2574,7 +2723,7 @@
         <v>1.373</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row r="16" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>57</v>
       </c>
@@ -2588,7 +2737,7 @@
         <v>13</v>
       </c>
       <c r="E16" s="11">
-        <v>0.00000840013</v>
+        <v>8.4001299999999998E-6</v>
       </c>
       <c r="F16" s="23">
         <v>1.010875</v>
@@ -2600,7 +2749,7 @@
         <v>1.365</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row r="17" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>58</v>
       </c>
@@ -2608,30 +2757,30 @@
         <v>58.1</v>
       </c>
       <c r="C17" s="11">
-        <v>1.095401509951956</v>
+        <v>1.0954015099519561</v>
       </c>
       <c r="D17" s="16" t="s">
         <v>13</v>
       </c>
       <c r="E17" s="11">
-        <v>0.00000796</v>
+        <v>7.96E-6</v>
       </c>
       <c r="F17" s="13">
         <v>1</v>
       </c>
       <c r="G17" s="26">
-        <v>1.596</v>
+        <v>1.5960000000000001</v>
       </c>
       <c r="H17" s="26">
-        <v>1.457</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+        <v>1.4570000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>59</v>
       </c>
       <c r="B18" s="23">
-        <v>72.1</v>
+        <v>72.099999999999994</v>
       </c>
       <c r="C18" s="11">
         <v>1.1235955056179776</v>
@@ -2640,19 +2789,19 @@
         <v>13</v>
       </c>
       <c r="E18" s="11">
-        <v>0.000006799999999999999</v>
+        <v>6.7999999999999993E-6</v>
       </c>
       <c r="F18" s="23">
-        <v>0.97154</v>
+        <v>0.97153999999999996</v>
       </c>
       <c r="G18" s="26">
         <v>1.6</v>
       </c>
       <c r="H18" s="26">
-        <v>1.424</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+        <v>1.4239999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>60</v>
       </c>
@@ -2666,7 +2815,7 @@
         <v>13</v>
       </c>
       <c r="E19" s="11">
-        <v>0.00000605</v>
+        <v>6.0499999999999997E-6</v>
       </c>
       <c r="F19" s="13">
         <v>1</v>
@@ -2678,7 +2827,7 @@
         <v>1.51</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row r="20" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>61</v>
       </c>
@@ -2692,7 +2841,7 @@
         <v>13</v>
       </c>
       <c r="E20" s="11">
-        <v>0.00000605</v>
+        <v>6.0499999999999997E-6</v>
       </c>
       <c r="F20" s="13">
         <v>1</v>
@@ -2704,7 +2853,7 @@
         <v>1.52</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row r="21" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>62</v>
       </c>
@@ -2718,7 +2867,7 @@
         <v>13</v>
       </c>
       <c r="E21" s="11">
-        <v>0.0000056</v>
+        <v>5.5999999999999997E-6</v>
       </c>
       <c r="F21" s="13">
         <v>1</v>
@@ -2730,7 +2879,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+    <row r="22" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>63</v>
       </c>
@@ -2744,7 +2893,7 @@
         <v>22</v>
       </c>
       <c r="E22" s="11">
-        <v>0.000013287397200000001</v>
+        <v>1.3287397200000001E-5</v>
       </c>
       <c r="F22" s="13">
         <v>1</v>
@@ -2756,7 +2905,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+    <row r="23" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>64</v>
       </c>
@@ -2770,7 +2919,7 @@
         <v>13</v>
       </c>
       <c r="E23" s="11">
-        <v>0.000013267922594708523</v>
+        <v>1.3267922594708523E-5</v>
       </c>
       <c r="F23" s="13">
         <v>1</v>
@@ -2782,7 +2931,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+    <row r="24" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>65</v>
       </c>
@@ -2796,7 +2945,7 @@
         <v>13</v>
       </c>
       <c r="E24" s="11">
-        <v>0.000013267922594708523</v>
+        <v>1.3267922594708523E-5</v>
       </c>
       <c r="F24" s="13">
         <v>1</v>
@@ -2808,7 +2957,7 @@
         <v>1.27</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+    <row r="25" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>66</v>
       </c>
@@ -2822,7 +2971,7 @@
         <v>13</v>
       </c>
       <c r="E25" s="11">
-        <v>0.000010946600000000001</v>
+        <v>1.0946600000000001E-5</v>
       </c>
       <c r="F25" s="23">
         <v>0.75</v>
@@ -2834,7 +2983,7 @@
         <v>1.163</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+    <row r="26" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>14</v>
       </c>
@@ -2848,13 +2997,13 @@
         <v>13</v>
       </c>
       <c r="E26" s="11">
-        <v>0.00000840013</v>
+        <v>8.4001299999999998E-6</v>
       </c>
       <c r="F26" s="13">
         <v>1</v>
       </c>
       <c r="G26" s="26">
-        <v>1.432</v>
+        <v>1.4319999999999999</v>
       </c>
       <c r="H26" s="26">
         <v>1.222</v>
@@ -2876,15 +3025,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="17" width="32.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="18" width="22.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="18" width="20.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="19" width="18.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="20" width="24.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="21" width="44.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="32.140625" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.28515625" style="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="44.7109375" style="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="36.75">
+    <row r="1" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2904,7 +3053,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
@@ -2924,7 +3073,7 @@
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row r="3" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>12</v>
       </c>
@@ -2938,13 +3087,13 @@
         <v>13</v>
       </c>
       <c r="E3" s="11">
-        <v>0.0008927225149409927</v>
+        <v>8.9272251494099271E-4</v>
       </c>
       <c r="F3" s="11">
         <v>4.18</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row r="4" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>14</v>
       </c>
@@ -2958,13 +3107,13 @@
         <v>13</v>
       </c>
       <c r="E4" s="11">
-        <v>0.00035</v>
+        <v>3.5E-4</v>
       </c>
       <c r="F4" s="11">
         <v>1.93</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row r="5" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>15</v>
       </c>
@@ -2978,13 +3127,13 @@
         <v>13</v>
       </c>
       <c r="E5" s="11">
-        <v>0.035</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="F5" s="11">
         <v>2.1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row r="6" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>16</v>
       </c>
@@ -2998,13 +3147,13 @@
         <v>17</v>
       </c>
       <c r="E6" s="11">
-        <v>0.0008927225149409927</v>
+        <v>8.9272251494099271E-4</v>
       </c>
       <c r="F6" s="11">
         <v>4.18</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row r="7" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>18</v>
       </c>
@@ -3018,13 +3167,13 @@
         <v>13</v>
       </c>
       <c r="E7" s="11">
-        <v>0.0004614788979365924</v>
+        <v>4.6147889793659241E-4</v>
       </c>
       <c r="F7" s="11">
         <v>2.56</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row r="8" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>19</v>
       </c>
@@ -3038,13 +3187,13 @@
         <v>13</v>
       </c>
       <c r="E8" s="11">
-        <v>0.007</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="F8" s="11">
         <v>1.7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row r="9" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>20</v>
       </c>
@@ -3058,13 +3207,13 @@
         <v>13</v>
       </c>
       <c r="E9" s="11">
-        <v>0.00015</v>
+        <v>1.4999999999999999E-4</v>
       </c>
       <c r="F9" s="11">
-        <v>2.2</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>21</v>
       </c>
@@ -3078,13 +3227,13 @@
         <v>22</v>
       </c>
       <c r="E10" s="11">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="F10" s="11">
         <v>3.1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row r="11" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>23</v>
       </c>
@@ -3098,13 +3247,13 @@
         <v>13</v>
       </c>
       <c r="E11" s="11">
-        <v>0.0004614788979365924</v>
+        <v>4.6147889793659241E-4</v>
       </c>
       <c r="F11" s="11">
         <v>2.56</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row r="12" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>24</v>
       </c>
@@ -3116,13 +3265,13 @@
         <v>22</v>
       </c>
       <c r="E12" s="11">
-        <v>0.035</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="F12" s="11">
         <v>1.7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row r="13" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>25</v>
       </c>
@@ -3136,13 +3285,13 @@
         <v>13</v>
       </c>
       <c r="E13" s="11">
-        <v>0.00035</v>
+        <v>3.5E-4</v>
       </c>
       <c r="F13" s="11">
         <v>1.2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row r="14" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>26</v>
       </c>
@@ -3156,11 +3305,11 @@
         <v>22</v>
       </c>
       <c r="E14" s="11">
-        <v>0.0065</v>
+        <v>6.4999999999999997E-3</v>
       </c>
       <c r="F14" s="15"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row r="15" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>27</v>
       </c>
@@ -3174,13 +3323,13 @@
         <v>13</v>
       </c>
       <c r="E15" s="11">
-        <v>0.00035</v>
+        <v>3.5E-4</v>
       </c>
       <c r="F15" s="11">
-        <v>4.1</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>28</v>
       </c>
@@ -3194,13 +3343,13 @@
         <v>13</v>
       </c>
       <c r="E16" s="11">
-        <v>0.00035</v>
+        <v>3.5E-4</v>
       </c>
       <c r="F16" s="11">
-        <v>2.2</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>29</v>
       </c>
@@ -3212,13 +3361,13 @@
         <v>13</v>
       </c>
       <c r="E17" s="11">
-        <v>0.00035</v>
+        <v>3.5E-4</v>
       </c>
       <c r="F17" s="11">
-        <v>2.2</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>30</v>
       </c>
@@ -3232,13 +3381,13 @@
         <v>13</v>
       </c>
       <c r="E18" s="11">
-        <v>0.00012031366216294906</v>
+        <v>1.2031366216294906E-4</v>
       </c>
       <c r="F18" s="11">
         <v>4.7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row r="19" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>31</v>
       </c>
@@ -3252,13 +3401,13 @@
         <v>13</v>
       </c>
       <c r="E19" s="11">
-        <v>0.000002</v>
+        <v>1.9999999999999999E-6</v>
       </c>
       <c r="F19" s="11">
-        <v>0.655</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+        <v>0.65500000000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>32</v>
       </c>
@@ -3272,13 +3421,13 @@
         <v>13</v>
       </c>
       <c r="E20" s="11">
-        <v>0.000002</v>
+        <v>1.9999999999999999E-6</v>
       </c>
       <c r="F20" s="11">
         <v>0.7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row r="21" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>33</v>
       </c>
@@ -3292,13 +3441,13 @@
         <v>13</v>
       </c>
       <c r="E21" s="11">
-        <v>0.000002</v>
+        <v>1.9999999999999999E-6</v>
       </c>
       <c r="F21" s="11">
         <v>0.7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+    <row r="22" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>34</v>
       </c>
@@ -3312,7 +3461,7 @@
         <v>22</v>
       </c>
       <c r="E22" s="11">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="F22" s="15"/>
     </row>

--- a/code/table.xlsx
+++ b/code/table.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13920" windowHeight="8790"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11010"/>
   </bookViews>
   <sheets>
     <sheet name="table" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="74">
   <si>
     <t>Среда</t>
   </si>
@@ -245,33 +245,26 @@
   </si>
   <si>
     <t>Газ</t>
-  </si>
-  <si>
-    <t>1,7839 </t>
-  </si>
-  <si>
-    <t>2,019 </t>
-  </si>
-  <si>
-    <t>3,221 </t>
-  </si>
-  <si>
-    <t>1285 </t>
-  </si>
-  <si>
-    <t> 1,342 </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -457,133 +450,151 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -894,15 +905,16 @@
   </sheetPr>
   <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F55" sqref="F55"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.85546875" style="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.28515625" style="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="22.28515625" style="33" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" style="33" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" style="48" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.42578125" style="19" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.140625" style="20" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="45.7109375" style="20" bestFit="1" customWidth="1"/>
@@ -922,7 +934,7 @@
       <c r="C1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="38" t="s">
         <v>69</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -957,7 +969,7 @@
       <c r="C2" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="39" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="5" t="s">
@@ -992,7 +1004,7 @@
       <c r="C3" s="9">
         <v>18</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="40">
         <v>997</v>
       </c>
       <c r="E3" s="10" t="s">
@@ -1019,7 +1031,7 @@
       <c r="C4" s="9">
         <v>42</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="40">
         <v>520</v>
       </c>
       <c r="E4" s="10" t="s">
@@ -1046,7 +1058,7 @@
       <c r="C5" s="9">
         <v>400</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="40">
         <v>700</v>
       </c>
       <c r="E5" s="10" t="s">
@@ -1073,7 +1085,7 @@
       <c r="C6" s="9">
         <v>18</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="40">
         <v>1024</v>
       </c>
       <c r="E6" s="10" t="s">
@@ -1100,7 +1112,7 @@
       <c r="C7" s="9">
         <v>62</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="40">
         <v>1113</v>
       </c>
       <c r="E7" s="10" t="s">
@@ -1127,7 +1139,7 @@
       <c r="C8" s="9">
         <v>390</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="40">
         <v>875</v>
       </c>
       <c r="E8" s="10" t="s">
@@ -1154,7 +1166,7 @@
       <c r="C9" s="9">
         <v>50</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="40">
         <v>500</v>
       </c>
       <c r="E9" s="10" t="s">
@@ -1181,7 +1193,7 @@
       <c r="C10" s="9">
         <v>63</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="40">
         <v>1513</v>
       </c>
       <c r="E10" s="10" t="s">
@@ -1208,7 +1220,7 @@
       <c r="C11" s="9">
         <v>32</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="40">
         <v>792</v>
       </c>
       <c r="E11" s="10" t="s">
@@ -1233,7 +1245,7 @@
         <v>72</v>
       </c>
       <c r="C12" s="12"/>
-      <c r="D12" s="9">
+      <c r="D12" s="40">
         <v>920</v>
       </c>
       <c r="E12" s="10" t="s">
@@ -1260,7 +1272,7 @@
       <c r="C13" s="9">
         <v>106</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="40">
         <v>860</v>
       </c>
       <c r="E13" s="10" t="s">
@@ -1287,7 +1299,7 @@
       <c r="C14" s="13">
         <v>192</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="41">
         <v>1660</v>
       </c>
       <c r="E14" s="14" t="s">
@@ -1312,7 +1324,7 @@
       <c r="C15" s="9">
         <v>150</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="40">
         <v>1100</v>
       </c>
       <c r="E15" s="10" t="s">
@@ -1339,7 +1351,7 @@
       <c r="C16" s="13">
         <v>125</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="40">
         <v>650</v>
       </c>
       <c r="E16" s="16" t="s">
@@ -1364,7 +1376,7 @@
         <v>72</v>
       </c>
       <c r="C17" s="12"/>
-      <c r="D17" s="9">
+      <c r="D17" s="40">
         <v>830</v>
       </c>
       <c r="E17" s="16" t="s">
@@ -1391,7 +1403,7 @@
       <c r="C18" s="9">
         <v>17</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18" s="40">
         <v>600</v>
       </c>
       <c r="E18" s="16" t="s">
@@ -1418,7 +1430,7 @@
       <c r="C19" s="9">
         <v>61</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19" s="40">
         <v>1010</v>
       </c>
       <c r="E19" s="16" t="s">
@@ -1445,7 +1457,7 @@
       <c r="C20" s="9">
         <v>105</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20" s="40">
         <v>1096</v>
       </c>
       <c r="E20" s="16" t="s">
@@ -1472,7 +1484,7 @@
       <c r="C21" s="9">
         <v>149</v>
       </c>
-      <c r="D21" s="39">
+      <c r="D21" s="42">
         <v>1124</v>
       </c>
       <c r="E21" s="16" t="s">
@@ -1496,13 +1508,13 @@
       <c r="B22" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="C22" s="37">
+      <c r="C22" s="36">
         <v>90</v>
       </c>
-      <c r="D22" s="40">
+      <c r="D22" s="43">
         <v>1225</v>
       </c>
-      <c r="E22" s="38" t="s">
+      <c r="E22" s="37" t="s">
         <v>22</v>
       </c>
       <c r="F22" s="11">
@@ -1522,7 +1534,7 @@
         <v>73</v>
       </c>
       <c r="C23" s="34"/>
-      <c r="D23" s="42">
+      <c r="D23" s="44">
         <v>0.59799999999999998</v>
       </c>
       <c r="E23" s="35" t="s">
@@ -1555,7 +1567,7 @@
         <v>73</v>
       </c>
       <c r="C24" s="34"/>
-      <c r="D24" s="42">
+      <c r="D24" s="44">
         <v>1.2504599999999999</v>
       </c>
       <c r="E24" s="35" t="s">
@@ -1588,7 +1600,7 @@
         <v>73</v>
       </c>
       <c r="C25" s="34"/>
-      <c r="D25" s="42">
+      <c r="D25" s="44">
         <v>0.77139999999999997</v>
       </c>
       <c r="E25" s="35" t="s">
@@ -1621,7 +1633,7 @@
         <v>73</v>
       </c>
       <c r="C26" s="34"/>
-      <c r="D26" s="42">
+      <c r="D26" s="44">
         <v>1.2754000000000001</v>
       </c>
       <c r="E26" s="35" t="s">
@@ -1654,7 +1666,7 @@
         <v>73</v>
       </c>
       <c r="C27" s="34"/>
-      <c r="D27" s="42">
+      <c r="D27" s="44">
         <v>1.4279999999999999</v>
       </c>
       <c r="E27" s="35" t="s">
@@ -1687,7 +1699,7 @@
         <v>73</v>
       </c>
       <c r="C28" s="34"/>
-      <c r="D28" s="42">
+      <c r="D28" s="44">
         <v>3.214</v>
       </c>
       <c r="E28" s="35" t="s">
@@ -1720,8 +1732,8 @@
         <v>73</v>
       </c>
       <c r="C29" s="34"/>
-      <c r="D29" s="42" t="s">
-        <v>74</v>
+      <c r="D29" s="44">
+        <v>1.7839</v>
       </c>
       <c r="E29" s="35" t="s">
         <v>13</v>
@@ -1753,7 +1765,7 @@
         <v>73</v>
       </c>
       <c r="C30" s="34"/>
-      <c r="D30" s="42">
+      <c r="D30" s="44">
         <v>0.09</v>
       </c>
       <c r="E30" s="35" t="s">
@@ -1786,7 +1798,7 @@
         <v>73</v>
       </c>
       <c r="C31" s="34"/>
-      <c r="D31" s="42">
+      <c r="D31" s="44">
         <v>0.17799999999999999</v>
       </c>
       <c r="E31" s="35" t="s">
@@ -1819,7 +1831,7 @@
         <v>73</v>
       </c>
       <c r="C32" s="34"/>
-      <c r="D32" s="42">
+      <c r="D32" s="44">
         <v>1.98</v>
       </c>
       <c r="E32" s="35" t="s">
@@ -1852,7 +1864,7 @@
         <v>73</v>
       </c>
       <c r="C33" s="34"/>
-      <c r="D33" s="42">
+      <c r="D33" s="44">
         <v>1.98</v>
       </c>
       <c r="E33" s="35" t="s">
@@ -1885,7 +1897,7 @@
         <v>73</v>
       </c>
       <c r="C34" s="34"/>
-      <c r="D34" s="42">
+      <c r="D34" s="44">
         <v>0.71399999999999997</v>
       </c>
       <c r="E34" s="35" t="s">
@@ -1918,8 +1930,8 @@
         <v>73</v>
       </c>
       <c r="C35" s="34"/>
-      <c r="D35" s="42" t="s">
-        <v>78</v>
+      <c r="D35" s="49">
+        <v>1.3420000000000001</v>
       </c>
       <c r="E35" s="35" t="s">
         <v>13</v>
@@ -1951,8 +1963,8 @@
         <v>73</v>
       </c>
       <c r="C36" s="34"/>
-      <c r="D36" s="42" t="s">
-        <v>75</v>
+      <c r="D36" s="44">
+        <v>2.0190000000000001</v>
       </c>
       <c r="E36" s="35" t="s">
         <v>13</v>
@@ -1984,7 +1996,7 @@
         <v>73</v>
       </c>
       <c r="C37" s="34"/>
-      <c r="D37" s="42">
+      <c r="D37" s="44">
         <v>2.7029999999999998</v>
       </c>
       <c r="E37" s="35" t="s">
@@ -2017,8 +2029,8 @@
         <v>73</v>
       </c>
       <c r="C38" s="34"/>
-      <c r="D38" s="42" t="s">
-        <v>76</v>
+      <c r="D38" s="44">
+        <v>3.2210000000000001</v>
       </c>
       <c r="E38" s="35" t="s">
         <v>13</v>
@@ -2050,7 +2062,7 @@
         <v>73</v>
       </c>
       <c r="C39" s="34"/>
-      <c r="D39" s="42">
+      <c r="D39" s="44">
         <v>659.4</v>
       </c>
       <c r="E39" s="35" t="s">
@@ -2083,7 +2095,7 @@
         <v>73</v>
       </c>
       <c r="C40" s="34"/>
-      <c r="D40" s="42">
+      <c r="D40" s="44">
         <v>4.4589999999999996</v>
       </c>
       <c r="E40" s="35" t="s">
@@ -2116,7 +2128,7 @@
         <v>73</v>
       </c>
       <c r="C41" s="34"/>
-      <c r="D41" s="42">
+      <c r="D41" s="44">
         <v>702.52</v>
       </c>
       <c r="E41" s="35" t="s">
@@ -2149,8 +2161,8 @@
         <v>73</v>
       </c>
       <c r="C42" s="34"/>
-      <c r="D42" s="43" t="s">
-        <v>77</v>
+      <c r="D42" s="45">
+        <v>1285</v>
       </c>
       <c r="E42" s="35" t="s">
         <v>22</v>
@@ -2182,7 +2194,7 @@
         <v>73</v>
       </c>
       <c r="C43" s="34"/>
-      <c r="D43" s="36">
+      <c r="D43" s="46">
         <v>0.71699999999999997</v>
       </c>
       <c r="E43" s="35" t="s">
@@ -2215,7 +2227,7 @@
         <v>73</v>
       </c>
       <c r="C44" s="34"/>
-      <c r="D44" s="41">
+      <c r="D44" s="47">
         <v>0.7</v>
       </c>
       <c r="E44" s="35" t="s">
@@ -2248,7 +2260,7 @@
         <v>73</v>
       </c>
       <c r="C45" s="34"/>
-      <c r="D45" s="36">
+      <c r="D45" s="46">
         <v>1.1739999999999999</v>
       </c>
       <c r="E45" s="35" t="s">
@@ -2281,7 +2293,7 @@
         <v>73</v>
       </c>
       <c r="C46" s="34"/>
-      <c r="D46" s="36">
+      <c r="D46" s="46">
         <v>1.81</v>
       </c>
       <c r="E46" s="35" t="s">
